--- a/analyst/Franzi/rmonize/data_proc_elem/DPE_DEGS1_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_proc_elem/DPE_DEGS1_FRANZI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{E97C809B-3102-435E-9A58-D3EF5F875857}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{8EA9B79E-A9F2-4569-BCFF-40137F6F402C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="373">
   <si>
     <t>index</t>
   </si>
@@ -899,13 +899,375 @@
   </si>
   <si>
     <t>Wie oft und wieviel Nudeln und Reis</t>
+  </si>
+  <si>
+    <t>FQvbrot1;FQvbrot2;FQmbrot1;FQmbrot2;FQwbrot1;FQwbrot2</t>
+  </si>
+  <si>
+    <t>(FQvbrot1*FQvbrot2)+(FQmbrot1*FQmbrot2)+(FQwbrot1*FQwbrot2)</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Vollkornbrot oder -brötchen, Grau- oder Mischbrot, Weißbrot oder Brötchen</t>
+  </si>
+  <si>
+    <t>FQcorn1;FQcorn2;FQmuesli1;FQmuesli2</t>
+  </si>
+  <si>
+    <t>(FQcorn1*FQcorn2)+(FQmuesli1*FQmuesli2)</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Cornflakes und Müsli</t>
+  </si>
+  <si>
+    <t>FQcrack1;FQcrack2</t>
+  </si>
+  <si>
+    <t>FQcrack1*FQcrack2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Salzgebäck und Cracker</t>
+  </si>
+  <si>
+    <t>FQfleisch1*FQfleisch2</t>
+  </si>
+  <si>
+    <t>FQfleisch1;FQfleisch2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Fleisch (ohne Geflügel, ohne Wurst) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQfleisch3 (Wie oft paniertes Flesich)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQhuhn1;FQhuhn2</t>
+  </si>
+  <si>
+    <t>FQhuhn1*FQhuhn2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Geflügel
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FGhuhn3 (Anteil paniertes o frittiertes Geflügel)?</t>
+    </r>
+  </si>
+  <si>
+    <t>(FQburg1*FQburg2)+(FQcwurst1*FQcwurst2)+(FQwurst1*FQwurst2)+(FQschink1*FQschink2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Hamburger oder Döner Kebab? Wie oft und wiviel Brat- oder Currywurst? Wie oft und wieivel Wurst? Wie oft und wieviel Schinken? 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQwurst3 (Wie oft fettarme Wurst)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQburg1;FQburg2;FQcwurst1;FQcwurst2;FQwurst1;FQwurst2;FQschink1;FQschink2</t>
+  </si>
+  <si>
+    <t>FQkfisch1;FQkfisch2;FQwfisch1;FQwfisch2</t>
+  </si>
+  <si>
+    <t>(FQkfisch1*FQkfisch2)+(FQwfisch1*FQwfisch2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel kalter Fisch? Wie oft und wieviel warmer Fisch?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQwfisch3 (Anteil panierter Fisch)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQei1;FQei2</t>
+  </si>
+  <si>
+    <t>FQei1*FQei2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Eier?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete </t>
+  </si>
+  <si>
+    <t>FQsfett1;FQsfett2</t>
+  </si>
+  <si>
+    <t>FQsfett1*FQsfett2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Butter oder Margarine?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Achtung: keine pflanzl. Öle!</t>
+    </r>
+  </si>
+  <si>
+    <t>FQhonig1;FQhonig2;FQncreme1;FQncreme2</t>
+  </si>
+  <si>
+    <t>Wie of und wieviel Honig oder Marmelade? Wie oft und wieviel Nuss-Nougatcreme?</t>
+  </si>
+  <si>
+    <t>FQschok1;FQschok2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Schokolade oder Schokeriegel?</t>
+  </si>
+  <si>
+    <t>FQsuess1;FQsuess2</t>
+  </si>
+  <si>
+    <t>FQsuess1*FQsuess2</t>
+  </si>
+  <si>
+    <t>FQschok1*FQschok2</t>
+  </si>
+  <si>
+    <t>(FQhonig1*FQhonig2)+(FQncreme1*FQncreme2)</t>
+  </si>
+  <si>
+    <t>FQeis1;FQeis2</t>
+  </si>
+  <si>
+    <t>FQeis1*FQeis2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Eis?</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Süßigkeiten?</t>
+  </si>
+  <si>
+    <t>FQkuch1;FQkuch2;FQkeks1;FQkeks2</t>
+  </si>
+  <si>
+    <t>(FQkuch1*FQkuch2)+(FQkeks1*FQkeks2)</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Kuchen, Torten oder süße Backwaren?
+Wie oft und wieviel Kekse?</t>
+  </si>
+  <si>
+    <t>FQfsaft1;FQfsaft2;FQgsaft1;FQgsaft2</t>
+  </si>
+  <si>
+    <t>(FQfsaft1*FQfsaft2)+(FQgsaft1*FQgsaft2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Fruchtsaft?
+Wie oft und wieviel Gemüsesaft?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FGfsaft3 (Fruchtsaftverdünnt/unverdünnt)? 
+Was machen wir mit FQgsaft3 (Gemüsesaft verdünnt/unverdünnt)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQcola1;FQcola2;FQlight1;FQlight2</t>
+  </si>
+  <si>
+    <t>(FQcola1*FQcola2)+(FQlight1*FQlight2)</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel zuckerh. Erfrischungsgetränke?
+Wie oft und wieviel kal.red. Erfrischungsgetränke?</t>
+  </si>
+  <si>
+    <t>FQkaff1;FQkaff2</t>
+  </si>
+  <si>
+    <t>FQkaff1*FQkaff2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Kaffee?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQkaff3 (Zucker: Kaffee)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQstee1;FQstee2</t>
+  </si>
+  <si>
+    <t>FQstee1*FQstee2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel schwarzer oder grüner Tee?
+Was machen wir mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FQstee3 (Zucker:Schwarzer oder grüner Tee)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQftee1;FQftee2</t>
+  </si>
+  <si>
+    <t>FQftee1*FQftee2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Wie oft und wieviel Früchte- oder Kräutertee?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQftee3 (Zucker: Früchte- oder Kräutertee)?</t>
+    </r>
+  </si>
+  <si>
+    <t>FQwass1;FQwass2</t>
+  </si>
+  <si>
+    <t>FQwass1*FQwass2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Wasser?</t>
+  </si>
+  <si>
+    <t>FQwein1;FQwein2</t>
+  </si>
+  <si>
+    <t>FQwein1*FQwein2</t>
+  </si>
+  <si>
+    <t>Wie oft  und wieviel Wein, Sekt, Obstwein?</t>
+  </si>
+  <si>
+    <t>FQbier1;FQbier2</t>
+  </si>
+  <si>
+    <t>FQbier1*FQbier2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Bier?</t>
+  </si>
+  <si>
+    <t>FQschnaps1;FQschnaps2</t>
+  </si>
+  <si>
+    <t>FQschnaps1*FQschnaps2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel hochprozentige alkoholische Getränke?</t>
+  </si>
+  <si>
+    <t>FQcockt1;FQcockt2</t>
+  </si>
+  <si>
+    <t>FQcockt1*FQcockt2</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Cocktails?</t>
+  </si>
+  <si>
+    <t>FQpizza1;FQpizza2;FQchips1;FQchips2</t>
+  </si>
+  <si>
+    <t>(FQpizza1*FQpizza2)+(FQchips1*FQchips2)</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Pizza?
+Wie oft und wieviel Kartoffelchips?</t>
+  </si>
+  <si>
+    <t>__BLANK__</t>
+  </si>
+  <si>
+    <t>paste</t>
+  </si>
+  <si>
+    <t>identical</t>
+  </si>
+  <si>
+    <t>1 (FFQ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -921,13 +1283,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -942,11 +1343,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1287,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="C93" workbookViewId="0">
+      <selection activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2263,6 +2686,24 @@
       <c r="D36" t="s">
         <v>13</v>
       </c>
+      <c r="F36" t="s">
+        <v>293</v>
+      </c>
+      <c r="G36" t="s">
+        <v>256</v>
+      </c>
+      <c r="H36" t="s">
+        <v>294</v>
+      </c>
+      <c r="I36" t="s">
+        <v>295</v>
+      </c>
+      <c r="J36" t="s">
+        <v>254</v>
+      </c>
+      <c r="K36" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
@@ -2274,6 +2715,21 @@
       <c r="D37" t="s">
         <v>13</v>
       </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>262</v>
+      </c>
+      <c r="H37" t="s">
+        <v>262</v>
+      </c>
+      <c r="J37" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -2285,6 +2741,21 @@
       <c r="D38" t="s">
         <v>13</v>
       </c>
+      <c r="F38" t="s">
+        <v>262</v>
+      </c>
+      <c r="G38" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" t="s">
+        <v>262</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
@@ -2296,6 +2767,24 @@
       <c r="D39" t="s">
         <v>13</v>
       </c>
+      <c r="F39" t="s">
+        <v>296</v>
+      </c>
+      <c r="G39" t="s">
+        <v>256</v>
+      </c>
+      <c r="H39" t="s">
+        <v>297</v>
+      </c>
+      <c r="I39" t="s">
+        <v>298</v>
+      </c>
+      <c r="J39" t="s">
+        <v>254</v>
+      </c>
+      <c r="K39" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
@@ -2307,6 +2796,24 @@
       <c r="D40" t="s">
         <v>13</v>
       </c>
+      <c r="F40" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" t="s">
+        <v>300</v>
+      </c>
+      <c r="I40" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" t="s">
+        <v>254</v>
+      </c>
+      <c r="K40" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -2318,6 +2825,21 @@
       <c r="D41" t="s">
         <v>13</v>
       </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" t="s">
+        <v>262</v>
+      </c>
+      <c r="J41" t="s">
+        <v>262</v>
+      </c>
+      <c r="K41" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
@@ -2329,8 +2851,23 @@
       <c r="D42" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>262</v>
+      </c>
+      <c r="G42" t="s">
+        <v>262</v>
+      </c>
+      <c r="H42" t="s">
+        <v>262</v>
+      </c>
+      <c r="J42" t="s">
+        <v>262</v>
+      </c>
+      <c r="K42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>94</v>
       </c>
@@ -2339,6 +2876,24 @@
       </c>
       <c r="D43" t="s">
         <v>13</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -2351,6 +2906,21 @@
       <c r="D44" t="s">
         <v>13</v>
       </c>
+      <c r="F44" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" t="s">
+        <v>262</v>
+      </c>
+      <c r="J44" t="s">
+        <v>262</v>
+      </c>
+      <c r="K44" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -2362,6 +2932,21 @@
       <c r="D45" t="s">
         <v>13</v>
       </c>
+      <c r="F45" t="s">
+        <v>262</v>
+      </c>
+      <c r="G45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" t="s">
+        <v>262</v>
+      </c>
+      <c r="J45" t="s">
+        <v>262</v>
+      </c>
+      <c r="K45" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
@@ -2373,6 +2958,21 @@
       <c r="D46" t="s">
         <v>13</v>
       </c>
+      <c r="F46" t="s">
+        <v>262</v>
+      </c>
+      <c r="G46" t="s">
+        <v>262</v>
+      </c>
+      <c r="H46" t="s">
+        <v>262</v>
+      </c>
+      <c r="J46" t="s">
+        <v>262</v>
+      </c>
+      <c r="K46" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
@@ -2384,6 +2984,21 @@
       <c r="D47" t="s">
         <v>13</v>
       </c>
+      <c r="F47" t="s">
+        <v>262</v>
+      </c>
+      <c r="G47" t="s">
+        <v>262</v>
+      </c>
+      <c r="H47" t="s">
+        <v>262</v>
+      </c>
+      <c r="J47" t="s">
+        <v>262</v>
+      </c>
+      <c r="K47" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
@@ -2395,8 +3010,23 @@
       <c r="D48" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>262</v>
+      </c>
+      <c r="G48" t="s">
+        <v>262</v>
+      </c>
+      <c r="H48" t="s">
+        <v>262</v>
+      </c>
+      <c r="J48" t="s">
+        <v>262</v>
+      </c>
+      <c r="K48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>106</v>
       </c>
@@ -2406,8 +3036,23 @@
       <c r="D49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" t="s">
+        <v>262</v>
+      </c>
+      <c r="H49" t="s">
+        <v>262</v>
+      </c>
+      <c r="J49" t="s">
+        <v>262</v>
+      </c>
+      <c r="K49" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>108</v>
       </c>
@@ -2417,8 +3062,26 @@
       <c r="D50" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F50" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>110</v>
       </c>
@@ -2428,8 +3091,23 @@
       <c r="D51" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
+        <v>262</v>
+      </c>
+      <c r="G51" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" t="s">
+        <v>262</v>
+      </c>
+      <c r="J51" t="s">
+        <v>262</v>
+      </c>
+      <c r="K51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>112</v>
       </c>
@@ -2439,8 +3117,23 @@
       <c r="D52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F52" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" t="s">
+        <v>262</v>
+      </c>
+      <c r="H52" t="s">
+        <v>262</v>
+      </c>
+      <c r="J52" t="s">
+        <v>262</v>
+      </c>
+      <c r="K52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>114</v>
       </c>
@@ -2450,8 +3143,23 @@
       <c r="D53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F53" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" t="s">
+        <v>262</v>
+      </c>
+      <c r="H53" t="s">
+        <v>262</v>
+      </c>
+      <c r="J53" t="s">
+        <v>262</v>
+      </c>
+      <c r="K53" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>116</v>
       </c>
@@ -2461,8 +3169,23 @@
       <c r="D54" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F54" t="s">
+        <v>262</v>
+      </c>
+      <c r="G54" t="s">
+        <v>262</v>
+      </c>
+      <c r="H54" t="s">
+        <v>262</v>
+      </c>
+      <c r="J54" t="s">
+        <v>262</v>
+      </c>
+      <c r="K54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>118</v>
       </c>
@@ -2472,8 +3195,23 @@
       <c r="D55" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F55" t="s">
+        <v>262</v>
+      </c>
+      <c r="G55" t="s">
+        <v>262</v>
+      </c>
+      <c r="H55" t="s">
+        <v>262</v>
+      </c>
+      <c r="J55" t="s">
+        <v>262</v>
+      </c>
+      <c r="K55" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>120</v>
       </c>
@@ -2483,8 +3221,23 @@
       <c r="D56" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F56" t="s">
+        <v>262</v>
+      </c>
+      <c r="G56" t="s">
+        <v>262</v>
+      </c>
+      <c r="H56" t="s">
+        <v>262</v>
+      </c>
+      <c r="J56" t="s">
+        <v>262</v>
+      </c>
+      <c r="K56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>122</v>
       </c>
@@ -2494,8 +3247,23 @@
       <c r="D57" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>262</v>
+      </c>
+      <c r="G57" t="s">
+        <v>262</v>
+      </c>
+      <c r="H57" t="s">
+        <v>262</v>
+      </c>
+      <c r="J57" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>124</v>
       </c>
@@ -2505,8 +3273,26 @@
       <c r="D58" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F58" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>126</v>
       </c>
@@ -2516,8 +3302,23 @@
       <c r="D59" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>262</v>
+      </c>
+      <c r="G59" t="s">
+        <v>262</v>
+      </c>
+      <c r="H59" t="s">
+        <v>262</v>
+      </c>
+      <c r="J59" t="s">
+        <v>262</v>
+      </c>
+      <c r="K59" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>128</v>
       </c>
@@ -2527,8 +3328,23 @@
       <c r="D60" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" t="s">
+        <v>262</v>
+      </c>
+      <c r="H60" t="s">
+        <v>262</v>
+      </c>
+      <c r="J60" t="s">
+        <v>262</v>
+      </c>
+      <c r="K60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>130</v>
       </c>
@@ -2538,8 +3354,26 @@
       <c r="D61" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F61" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>132</v>
       </c>
@@ -2549,8 +3383,23 @@
       <c r="D62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F62" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" t="s">
+        <v>262</v>
+      </c>
+      <c r="J62" t="s">
+        <v>262</v>
+      </c>
+      <c r="K62" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>134</v>
       </c>
@@ -2560,8 +3409,23 @@
       <c r="D63" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F63" t="s">
+        <v>262</v>
+      </c>
+      <c r="G63" t="s">
+        <v>262</v>
+      </c>
+      <c r="H63" t="s">
+        <v>262</v>
+      </c>
+      <c r="J63" t="s">
+        <v>262</v>
+      </c>
+      <c r="K63" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>136</v>
       </c>
@@ -2571,8 +3435,26 @@
       <c r="D64" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F64" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64" t="s">
+        <v>315</v>
+      </c>
+      <c r="I64" t="s">
+        <v>316</v>
+      </c>
+      <c r="J64" t="s">
+        <v>317</v>
+      </c>
+      <c r="K64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>138</v>
       </c>
@@ -2582,8 +3464,23 @@
       <c r="D65" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F65" t="s">
+        <v>262</v>
+      </c>
+      <c r="G65" t="s">
+        <v>262</v>
+      </c>
+      <c r="H65" t="s">
+        <v>262</v>
+      </c>
+      <c r="J65" t="s">
+        <v>262</v>
+      </c>
+      <c r="K65" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>140</v>
       </c>
@@ -2593,8 +3490,26 @@
       <c r="D66" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F66" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>142</v>
       </c>
@@ -2604,8 +3519,23 @@
       <c r="D67" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F67" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" t="s">
+        <v>262</v>
+      </c>
+      <c r="H67" t="s">
+        <v>262</v>
+      </c>
+      <c r="J67" t="s">
+        <v>262</v>
+      </c>
+      <c r="K67" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>144</v>
       </c>
@@ -2615,8 +3545,23 @@
       <c r="D68" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F68" t="s">
+        <v>262</v>
+      </c>
+      <c r="G68" t="s">
+        <v>262</v>
+      </c>
+      <c r="H68" t="s">
+        <v>262</v>
+      </c>
+      <c r="J68" t="s">
+        <v>262</v>
+      </c>
+      <c r="K68" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>146</v>
       </c>
@@ -2626,8 +3571,23 @@
       <c r="D69" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F69" t="s">
+        <v>262</v>
+      </c>
+      <c r="G69" t="s">
+        <v>262</v>
+      </c>
+      <c r="H69" t="s">
+        <v>262</v>
+      </c>
+      <c r="J69" t="s">
+        <v>262</v>
+      </c>
+      <c r="K69" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>148</v>
       </c>
@@ -2637,8 +3597,23 @@
       <c r="D70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F70" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" t="s">
+        <v>262</v>
+      </c>
+      <c r="H70" t="s">
+        <v>262</v>
+      </c>
+      <c r="J70" t="s">
+        <v>262</v>
+      </c>
+      <c r="K70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>150</v>
       </c>
@@ -2648,8 +3623,23 @@
       <c r="D71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F71" t="s">
+        <v>262</v>
+      </c>
+      <c r="G71" t="s">
+        <v>262</v>
+      </c>
+      <c r="H71" t="s">
+        <v>262</v>
+      </c>
+      <c r="J71" t="s">
+        <v>262</v>
+      </c>
+      <c r="K71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>152</v>
       </c>
@@ -2659,8 +3649,23 @@
       <c r="D72" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>262</v>
+      </c>
+      <c r="G72" t="s">
+        <v>262</v>
+      </c>
+      <c r="H72" t="s">
+        <v>262</v>
+      </c>
+      <c r="J72" t="s">
+        <v>262</v>
+      </c>
+      <c r="K72" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>154</v>
       </c>
@@ -2670,8 +3675,23 @@
       <c r="D73" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F73" t="s">
+        <v>262</v>
+      </c>
+      <c r="G73" t="s">
+        <v>262</v>
+      </c>
+      <c r="H73" t="s">
+        <v>262</v>
+      </c>
+      <c r="J73" t="s">
+        <v>262</v>
+      </c>
+      <c r="K73" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>156</v>
       </c>
@@ -2681,8 +3701,26 @@
       <c r="D74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F74" t="s">
+        <v>321</v>
+      </c>
+      <c r="G74" t="s">
+        <v>256</v>
+      </c>
+      <c r="H74" t="s">
+        <v>328</v>
+      </c>
+      <c r="I74" t="s">
+        <v>322</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>158</v>
       </c>
@@ -2692,8 +3730,26 @@
       <c r="D75" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F75" t="s">
+        <v>323</v>
+      </c>
+      <c r="G75" t="s">
+        <v>256</v>
+      </c>
+      <c r="H75" t="s">
+        <v>327</v>
+      </c>
+      <c r="I75" t="s">
+        <v>324</v>
+      </c>
+      <c r="J75" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>160</v>
       </c>
@@ -2703,8 +3759,26 @@
       <c r="D76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F76" t="s">
+        <v>325</v>
+      </c>
+      <c r="G76" t="s">
+        <v>256</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="I76" t="s">
+        <v>332</v>
+      </c>
+      <c r="J76" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>162</v>
       </c>
@@ -2714,8 +3788,23 @@
       <c r="D77" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F77" t="s">
+        <v>262</v>
+      </c>
+      <c r="G77" t="s">
+        <v>262</v>
+      </c>
+      <c r="H77" t="s">
+        <v>262</v>
+      </c>
+      <c r="J77" t="s">
+        <v>262</v>
+      </c>
+      <c r="K77" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>164</v>
       </c>
@@ -2725,8 +3814,26 @@
       <c r="D78" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F78" t="s">
+        <v>329</v>
+      </c>
+      <c r="G78" t="s">
+        <v>256</v>
+      </c>
+      <c r="H78" t="s">
+        <v>330</v>
+      </c>
+      <c r="I78" t="s">
+        <v>331</v>
+      </c>
+      <c r="J78" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K78" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>166</v>
       </c>
@@ -2736,8 +3843,23 @@
       <c r="D79" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F79" t="s">
+        <v>262</v>
+      </c>
+      <c r="G79" t="s">
+        <v>262</v>
+      </c>
+      <c r="H79" t="s">
+        <v>262</v>
+      </c>
+      <c r="J79" t="s">
+        <v>262</v>
+      </c>
+      <c r="K79" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>168</v>
       </c>
@@ -2747,8 +3869,23 @@
       <c r="D80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F80" t="s">
+        <v>262</v>
+      </c>
+      <c r="G80" t="s">
+        <v>262</v>
+      </c>
+      <c r="H80" t="s">
+        <v>262</v>
+      </c>
+      <c r="J80" t="s">
+        <v>262</v>
+      </c>
+      <c r="K80" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>170</v>
       </c>
@@ -2758,8 +3895,23 @@
       <c r="D81" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F81" t="s">
+        <v>262</v>
+      </c>
+      <c r="G81" t="s">
+        <v>262</v>
+      </c>
+      <c r="H81" t="s">
+        <v>262</v>
+      </c>
+      <c r="J81" t="s">
+        <v>262</v>
+      </c>
+      <c r="K81" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="82" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>172</v>
       </c>
@@ -2769,8 +3921,26 @@
       <c r="D82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F82" t="s">
+        <v>333</v>
+      </c>
+      <c r="G82" t="s">
+        <v>256</v>
+      </c>
+      <c r="H82" t="s">
+        <v>334</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="J82" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K82" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>174</v>
       </c>
@@ -2780,8 +3950,23 @@
       <c r="D83" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F83" t="s">
+        <v>262</v>
+      </c>
+      <c r="G83" t="s">
+        <v>262</v>
+      </c>
+      <c r="H83" t="s">
+        <v>262</v>
+      </c>
+      <c r="J83" t="s">
+        <v>262</v>
+      </c>
+      <c r="K83" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>176</v>
       </c>
@@ -2791,8 +3976,23 @@
       <c r="D84" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F84" t="s">
+        <v>262</v>
+      </c>
+      <c r="G84" t="s">
+        <v>262</v>
+      </c>
+      <c r="H84" t="s">
+        <v>262</v>
+      </c>
+      <c r="J84" t="s">
+        <v>262</v>
+      </c>
+      <c r="K84" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>178</v>
       </c>
@@ -2802,8 +4002,23 @@
       <c r="D85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F85" t="s">
+        <v>262</v>
+      </c>
+      <c r="G85" t="s">
+        <v>262</v>
+      </c>
+      <c r="H85" t="s">
+        <v>262</v>
+      </c>
+      <c r="J85" t="s">
+        <v>262</v>
+      </c>
+      <c r="K85" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>180</v>
       </c>
@@ -2813,8 +4028,26 @@
       <c r="D86" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F86" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>182</v>
       </c>
@@ -2824,8 +4057,26 @@
       <c r="D87" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F87" t="s">
+        <v>339</v>
+      </c>
+      <c r="G87" t="s">
+        <v>256</v>
+      </c>
+      <c r="H87" t="s">
+        <v>340</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="J87" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>184</v>
       </c>
@@ -2835,8 +4086,23 @@
       <c r="D88" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F88" t="s">
+        <v>262</v>
+      </c>
+      <c r="G88" t="s">
+        <v>262</v>
+      </c>
+      <c r="H88" t="s">
+        <v>262</v>
+      </c>
+      <c r="J88" t="s">
+        <v>262</v>
+      </c>
+      <c r="K88" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>186</v>
       </c>
@@ -2846,8 +4112,26 @@
       <c r="D89" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F89" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>188</v>
       </c>
@@ -2857,8 +4141,26 @@
       <c r="D90" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F90" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>190</v>
       </c>
@@ -2868,8 +4170,26 @@
       <c r="D91" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F91" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>192</v>
       </c>
@@ -2879,8 +4199,23 @@
       <c r="D92" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F92" t="s">
+        <v>262</v>
+      </c>
+      <c r="G92" t="s">
+        <v>262</v>
+      </c>
+      <c r="H92" t="s">
+        <v>262</v>
+      </c>
+      <c r="J92" t="s">
+        <v>262</v>
+      </c>
+      <c r="K92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>194</v>
       </c>
@@ -2890,8 +4225,26 @@
       <c r="D93" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>351</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="H93" t="s">
+        <v>352</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K93" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>196</v>
       </c>
@@ -2901,8 +4254,23 @@
       <c r="D94" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F94" t="s">
+        <v>262</v>
+      </c>
+      <c r="G94" t="s">
+        <v>262</v>
+      </c>
+      <c r="H94" t="s">
+        <v>262</v>
+      </c>
+      <c r="J94" t="s">
+        <v>262</v>
+      </c>
+      <c r="K94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>198</v>
       </c>
@@ -2912,8 +4280,26 @@
       <c r="D95" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>354</v>
+      </c>
+      <c r="G95" t="s">
+        <v>256</v>
+      </c>
+      <c r="H95" t="s">
+        <v>355</v>
+      </c>
+      <c r="I95" t="s">
+        <v>356</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K95" s="6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>200</v>
       </c>
@@ -2923,8 +4309,23 @@
       <c r="D96" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F96" t="s">
+        <v>262</v>
+      </c>
+      <c r="G96" t="s">
+        <v>262</v>
+      </c>
+      <c r="H96" t="s">
+        <v>262</v>
+      </c>
+      <c r="J96" t="s">
+        <v>262</v>
+      </c>
+      <c r="K96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>202</v>
       </c>
@@ -2934,8 +4335,26 @@
       <c r="D97" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F97" t="s">
+        <v>357</v>
+      </c>
+      <c r="G97" t="s">
+        <v>256</v>
+      </c>
+      <c r="H97" t="s">
+        <v>358</v>
+      </c>
+      <c r="I97" t="s">
+        <v>359</v>
+      </c>
+      <c r="J97" t="s">
+        <v>254</v>
+      </c>
+      <c r="K97" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>204</v>
       </c>
@@ -2945,8 +4364,26 @@
       <c r="D98" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F98" t="s">
+        <v>360</v>
+      </c>
+      <c r="G98" t="s">
+        <v>256</v>
+      </c>
+      <c r="H98" t="s">
+        <v>361</v>
+      </c>
+      <c r="I98" t="s">
+        <v>362</v>
+      </c>
+      <c r="J98" t="s">
+        <v>254</v>
+      </c>
+      <c r="K98" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>206</v>
       </c>
@@ -2956,8 +4393,23 @@
       <c r="D99" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F99" t="s">
+        <v>262</v>
+      </c>
+      <c r="G99" t="s">
+        <v>262</v>
+      </c>
+      <c r="H99" t="s">
+        <v>262</v>
+      </c>
+      <c r="J99" t="s">
+        <v>262</v>
+      </c>
+      <c r="K99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>208</v>
       </c>
@@ -2967,8 +4419,23 @@
       <c r="D100" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F100" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" t="s">
+        <v>262</v>
+      </c>
+      <c r="H100" t="s">
+        <v>262</v>
+      </c>
+      <c r="J100" t="s">
+        <v>262</v>
+      </c>
+      <c r="K100" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>210</v>
       </c>
@@ -2978,8 +4445,26 @@
       <c r="D101" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F101" t="s">
+        <v>363</v>
+      </c>
+      <c r="G101" t="s">
+        <v>256</v>
+      </c>
+      <c r="H101" t="s">
+        <v>364</v>
+      </c>
+      <c r="I101" t="s">
+        <v>365</v>
+      </c>
+      <c r="J101" t="s">
+        <v>254</v>
+      </c>
+      <c r="K101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>212</v>
       </c>
@@ -2989,8 +4474,23 @@
       <c r="D102" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>262</v>
+      </c>
+      <c r="G102" t="s">
+        <v>262</v>
+      </c>
+      <c r="H102" t="s">
+        <v>262</v>
+      </c>
+      <c r="J102" t="s">
+        <v>262</v>
+      </c>
+      <c r="K102" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>214</v>
       </c>
@@ -3000,8 +4500,23 @@
       <c r="D103" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>262</v>
+      </c>
+      <c r="G103" t="s">
+        <v>262</v>
+      </c>
+      <c r="H103" t="s">
+        <v>262</v>
+      </c>
+      <c r="J103" t="s">
+        <v>262</v>
+      </c>
+      <c r="K103" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>216</v>
       </c>
@@ -3011,8 +4526,23 @@
       <c r="D104" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>262</v>
+      </c>
+      <c r="G104" t="s">
+        <v>262</v>
+      </c>
+      <c r="H104" t="s">
+        <v>262</v>
+      </c>
+      <c r="J104" t="s">
+        <v>262</v>
+      </c>
+      <c r="K104" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>218</v>
       </c>
@@ -3022,8 +4552,23 @@
       <c r="D105" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>262</v>
+      </c>
+      <c r="G105" t="s">
+        <v>262</v>
+      </c>
+      <c r="H105" t="s">
+        <v>262</v>
+      </c>
+      <c r="J105" t="s">
+        <v>262</v>
+      </c>
+      <c r="K105" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>220</v>
       </c>
@@ -3033,8 +4578,23 @@
       <c r="D106" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>262</v>
+      </c>
+      <c r="G106" t="s">
+        <v>262</v>
+      </c>
+      <c r="H106" t="s">
+        <v>262</v>
+      </c>
+      <c r="J106" t="s">
+        <v>262</v>
+      </c>
+      <c r="K106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>222</v>
       </c>
@@ -3044,8 +4604,23 @@
       <c r="D107" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>262</v>
+      </c>
+      <c r="G107" t="s">
+        <v>262</v>
+      </c>
+      <c r="H107" t="s">
+        <v>262</v>
+      </c>
+      <c r="J107" t="s">
+        <v>262</v>
+      </c>
+      <c r="K107" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>224</v>
       </c>
@@ -3055,8 +4630,23 @@
       <c r="D108" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>262</v>
+      </c>
+      <c r="G108" t="s">
+        <v>262</v>
+      </c>
+      <c r="H108" t="s">
+        <v>262</v>
+      </c>
+      <c r="J108" t="s">
+        <v>262</v>
+      </c>
+      <c r="K108" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>226</v>
       </c>
@@ -3066,8 +4656,23 @@
       <c r="D109" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>262</v>
+      </c>
+      <c r="G109" t="s">
+        <v>262</v>
+      </c>
+      <c r="H109" t="s">
+        <v>262</v>
+      </c>
+      <c r="J109" t="s">
+        <v>262</v>
+      </c>
+      <c r="K109" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>228</v>
       </c>
@@ -3077,8 +4682,23 @@
       <c r="D110" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F110" t="s">
+        <v>262</v>
+      </c>
+      <c r="G110" t="s">
+        <v>262</v>
+      </c>
+      <c r="H110" t="s">
+        <v>262</v>
+      </c>
+      <c r="J110" t="s">
+        <v>262</v>
+      </c>
+      <c r="K110" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>230</v>
       </c>
@@ -3088,8 +4708,23 @@
       <c r="D111" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F111" t="s">
+        <v>262</v>
+      </c>
+      <c r="G111" t="s">
+        <v>262</v>
+      </c>
+      <c r="H111" t="s">
+        <v>262</v>
+      </c>
+      <c r="J111" t="s">
+        <v>262</v>
+      </c>
+      <c r="K111" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>232</v>
       </c>
@@ -3099,8 +4734,23 @@
       <c r="D112" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F112" t="s">
+        <v>262</v>
+      </c>
+      <c r="G112" t="s">
+        <v>262</v>
+      </c>
+      <c r="H112" t="s">
+        <v>262</v>
+      </c>
+      <c r="J112" t="s">
+        <v>262</v>
+      </c>
+      <c r="K112" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>234</v>
       </c>
@@ -3110,8 +4760,23 @@
       <c r="D113" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F113" t="s">
+        <v>262</v>
+      </c>
+      <c r="G113" t="s">
+        <v>262</v>
+      </c>
+      <c r="H113" t="s">
+        <v>262</v>
+      </c>
+      <c r="J113" t="s">
+        <v>262</v>
+      </c>
+      <c r="K113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>236</v>
       </c>
@@ -3121,8 +4786,23 @@
       <c r="D114" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F114" t="s">
+        <v>262</v>
+      </c>
+      <c r="G114" t="s">
+        <v>262</v>
+      </c>
+      <c r="H114" t="s">
+        <v>262</v>
+      </c>
+      <c r="J114" t="s">
+        <v>262</v>
+      </c>
+      <c r="K114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>238</v>
       </c>
@@ -3132,8 +4812,23 @@
       <c r="D115" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F115" t="s">
+        <v>262</v>
+      </c>
+      <c r="G115" t="s">
+        <v>262</v>
+      </c>
+      <c r="H115" t="s">
+        <v>262</v>
+      </c>
+      <c r="J115" t="s">
+        <v>262</v>
+      </c>
+      <c r="K115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>240</v>
       </c>
@@ -3143,8 +4838,23 @@
       <c r="D116" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
+        <v>262</v>
+      </c>
+      <c r="G116" t="s">
+        <v>262</v>
+      </c>
+      <c r="H116" t="s">
+        <v>262</v>
+      </c>
+      <c r="J116" t="s">
+        <v>262</v>
+      </c>
+      <c r="K116" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>242</v>
       </c>
@@ -3154,8 +4864,23 @@
       <c r="D117" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
+        <v>262</v>
+      </c>
+      <c r="G117" t="s">
+        <v>262</v>
+      </c>
+      <c r="H117" t="s">
+        <v>262</v>
+      </c>
+      <c r="J117" t="s">
+        <v>262</v>
+      </c>
+      <c r="K117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>244</v>
       </c>
@@ -3165,8 +4890,23 @@
       <c r="D118" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F118" t="s">
+        <v>262</v>
+      </c>
+      <c r="G118" t="s">
+        <v>262</v>
+      </c>
+      <c r="H118" t="s">
+        <v>262</v>
+      </c>
+      <c r="J118" t="s">
+        <v>262</v>
+      </c>
+      <c r="K118" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>246</v>
       </c>
@@ -3176,8 +4916,26 @@
       <c r="D119" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F119" t="s">
+        <v>366</v>
+      </c>
+      <c r="G119" t="s">
+        <v>256</v>
+      </c>
+      <c r="H119" t="s">
+        <v>367</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="J119" t="s">
+        <v>254</v>
+      </c>
+      <c r="K119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>248</v>
       </c>
@@ -3187,8 +4945,23 @@
       <c r="D120" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="F120" t="s">
+        <v>262</v>
+      </c>
+      <c r="G120" t="s">
+        <v>262</v>
+      </c>
+      <c r="H120" t="s">
+        <v>262</v>
+      </c>
+      <c r="J120" t="s">
+        <v>262</v>
+      </c>
+      <c r="K120" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>250</v>
       </c>
@@ -3197,6 +4970,24 @@
       </c>
       <c r="D121" t="s">
         <v>252</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="G121" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="H121" s="11">
+        <v>1</v>
+      </c>
+      <c r="I121" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="J121" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="K121" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>

--- a/analyst/Franzi/rmonize/data_proc_elem/DPE_DEGS1_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_proc_elem/DPE_DEGS1_FRANZI.xlsx
@@ -8,19 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{8EA9B79E-A9F2-4569-BCFF-40137F6F402C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B30EB3-09F9-439F-B114-5D0E84D35CF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="376">
   <si>
     <t>index</t>
   </si>
@@ -64,24 +80,66 @@
     <t>decimal</t>
   </si>
   <si>
+    <t>DEGS1_P1</t>
+  </si>
+  <si>
+    <t>FQgkart1;FQgkart2;FQbkart1;FQbkart2;FQpomm1;FQpomm2</t>
+  </si>
+  <si>
+    <t>operation</t>
+  </si>
+  <si>
+    <t>((FQgkart1*FQgkart2) + (FQbkart1*FQbkart2) + (FQpomm1*FQpomm2))/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel gekochte Kartoffeln?
+Wie oft und wieviel gebratene Kartoffeln? 
+Wie oft und wieviel Pommes frites?</t>
+  </si>
+  <si>
+    <t>partial</t>
+  </si>
+  <si>
+    <t>tentative</t>
+  </si>
+  <si>
     <t>POTATOES_0101</t>
   </si>
   <si>
     <t>Potato intake [g/d]</t>
   </si>
   <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>compatible</t>
+  </si>
+  <si>
     <t>OTHERTUB_0102</t>
   </si>
   <si>
     <t>Other roots and tuber intake [g/d]</t>
   </si>
   <si>
+    <t>impossible</t>
+  </si>
+  <si>
     <t>VEGETABLES_02</t>
   </si>
   <si>
     <t>Vegetable intake [g/d]</t>
   </si>
   <si>
+    <t>FQrgem1;FQrgem2;FQggem1;FQggem2</t>
+  </si>
+  <si>
+    <t>((FQrgem1*FQrgem2) + (FQggem1*FQggem2))/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel rohes Gemüse?
+Wie oft und wieviel gegartes Gemüse?</t>
+  </si>
+  <si>
     <t>LEAFYVEG_0201</t>
   </si>
   <si>
@@ -142,6 +200,15 @@
     <t>Total legumes intake [g/d]</t>
   </si>
   <si>
+    <t>FQhuelse1;FQhuelse2</t>
+  </si>
+  <si>
+    <t>(FQhuelse1*FQhuelse2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Hülsenfrüchte?</t>
+  </si>
+  <si>
     <t>LEGUMES_0301</t>
   </si>
   <si>
@@ -154,24 +221,61 @@
     <t>Total fruit intake [g/d]</t>
   </si>
   <si>
+    <t>FQfobst1;FQfobst2;FQgobst1;FQgobst2</t>
+  </si>
+  <si>
+    <t>((FQfobst1*FQfobst2)+(FQgobst1*FQgobst2))/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel frisches Obst?
+Wie oft und wieviel gegartes Obst?</t>
+  </si>
+  <si>
     <t>FRUITS_0401</t>
   </si>
   <si>
     <t>Intake of fresh fruits [g/d]</t>
   </si>
   <si>
+    <t>FQfobst1;FQfobst2</t>
+  </si>
+  <si>
+    <t>(FQfobst1*FQfobst2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel frisches Obst?</t>
+  </si>
+  <si>
     <t>NUTS_SEEDS_0402</t>
   </si>
   <si>
     <t>Intake of tree nuts and seeds [g/d]</t>
   </si>
   <si>
+    <t>FQnuss1;FQnuss2</t>
+  </si>
+  <si>
+    <t>(FQnuss1*FQnuss2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Nüsse?</t>
+  </si>
+  <si>
     <t>MIXEDFRUITS_0403</t>
   </si>
   <si>
     <t>Intake of candied fruit/mixed fruit, canned, jarred mixed fruit and miscellaneous fruits [g/d]</t>
   </si>
   <si>
+    <t>FQgobst1;FQgobst2</t>
+  </si>
+  <si>
+    <t>(FQgobst1*FQgobst2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel gegartes Obst?</t>
+  </si>
+  <si>
     <t>OLIVES_0404</t>
   </si>
   <si>
@@ -190,6 +294,15 @@
     <t>Intake of (whole) cow and cattle milk [g/d]</t>
   </si>
   <si>
+    <t>FQmilch1;FQmilch2</t>
+  </si>
+  <si>
+    <t>(FQmilch1*FQmilch2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Milch?</t>
+  </si>
+  <si>
     <t>MILKBEV_0502</t>
   </si>
   <si>
@@ -202,18 +315,99 @@
     <t>Intake of fermented milk products [g/d]</t>
   </si>
   <si>
+    <t>FQquark1;FQquark2</t>
+  </si>
+  <si>
+    <t>(FQquark1*FQquark2)/28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wie oft und  wieviel Quark, Joghurt oder Dickmilch?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQquark3 (Anteil fettarmer Quark, Joghurt, Dickmilch)?</t>
+    </r>
+  </si>
+  <si>
     <t>CURD_0504</t>
   </si>
   <si>
     <t>Intake of cheese curd, quark and cottage [g/d]</t>
   </si>
   <si>
+    <t>FQfkaes1;FQfkaes2</t>
+  </si>
+  <si>
+    <t>(FQfkaes1*FQfkaes2)/28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wie oft und wieviel Frischkäse?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQfkaes3 (Anteil fettarmer Frischkäse)?</t>
+    </r>
+  </si>
+  <si>
     <t>CHEESE_0505</t>
   </si>
   <si>
     <t>Intake of cheese [g/d]</t>
   </si>
   <si>
+    <t>FQkaes1;FQkaes2</t>
+  </si>
+  <si>
+    <t>(FQkaes1*FQkaes2)/28</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wie oft und wieviel Käse (Weich-, Schnitt- oder Hartkäse)?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Was machen wir mit FQkaes3 (Anteil fettarmer Käse)?</t>
+    </r>
+  </si>
+  <si>
     <t>DAIRYDESSERT_0506</t>
   </si>
   <si>
@@ -262,12 +456,30 @@
     <t>Intake of pastas and rice [g/d]</t>
   </si>
   <si>
+    <t>FQnudel1;FQnudel2;FQreis1;FQreis2</t>
+  </si>
+  <si>
+    <t>((FQnudel1*FQnudel2) + (FQreis1*FQreis2))/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Nudeln und Reis?</t>
+  </si>
+  <si>
     <t>BREAD_PROD_0603</t>
   </si>
   <si>
     <t>Intake of bread and bread products [g/d]</t>
   </si>
   <si>
+    <t>FQvbrot1;FQvbrot2;FQmbrot1;FQmbrot2;FQwbrot1;FQwbrot2</t>
+  </si>
+  <si>
+    <t>((FQvbrot1*FQvbrot2)+(FQmbrot1*FQmbrot2)+(FQwbrot1*FQwbrot2))/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Vollkornbrot oder -brötchen, Grau- oder Mischbrot, Weißbrot oder Brötchen?</t>
+  </si>
+  <si>
     <t>BREAD_060301</t>
   </si>
   <si>
@@ -286,12 +498,30 @@
     <t>Intake of breakfast cereals [g/d]</t>
   </si>
   <si>
+    <t>FQcorn1;FQcorn2;FQmuesli1;FQmuesli2</t>
+  </si>
+  <si>
+    <t>((FQcorn1*FQcorn2)+(FQmuesli1*FQmuesli2))/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Cornflakes und Müsli?</t>
+  </si>
+  <si>
     <t>SALT_BISCUIT_0605</t>
   </si>
   <si>
     <t>Intake of crackers and breadsticks [g/d]</t>
   </si>
   <si>
+    <t>FQcrack1;FQcrack2</t>
+  </si>
+  <si>
+    <t>(FQcrack1*FQcrack2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Salzgebäck und Cracker?</t>
+  </si>
+  <si>
     <t>DOUGH_PASTRY_0606</t>
   </si>
   <si>
@@ -310,631 +540,19 @@
     <t>Intake of red meat (mammals meat) [g/d]</t>
   </si>
   <si>
-    <t>BEEF_070101</t>
-  </si>
-  <si>
-    <t>Intake of cow, ox or bull fresh meat [g/d]</t>
-  </si>
-  <si>
-    <t>VEAL_070102</t>
-  </si>
-  <si>
-    <t>Intake of calf fresh meat [g/d]</t>
-  </si>
-  <si>
-    <t>PORK_070103</t>
-  </si>
-  <si>
-    <t>Intake of pig fresh meat [g/d]</t>
-  </si>
-  <si>
-    <t>MUTTON_LAMB_070104</t>
-  </si>
-  <si>
-    <t>Intake of lamb and sheep meat [g/d]</t>
-  </si>
-  <si>
-    <t>HORSE_070105</t>
-  </si>
-  <si>
-    <t>Intake of horse meat [g/d]</t>
-  </si>
-  <si>
-    <t>GOAT_070106</t>
-  </si>
-  <si>
-    <t>Intake of goat meat [g/d]</t>
-  </si>
-  <si>
-    <t>POULTRY_0702</t>
-  </si>
-  <si>
-    <t>Intake of poultry meat [g/d]</t>
-  </si>
-  <si>
-    <t>OTHERPOULTRY_070200</t>
-  </si>
-  <si>
-    <t>Intake of other poultry meat [g/d]</t>
-  </si>
-  <si>
-    <t>CHICKEN_070201</t>
-  </si>
-  <si>
-    <t>Intake of chicken meat [g/d]</t>
-  </si>
-  <si>
-    <t>TURKEY_070202</t>
-  </si>
-  <si>
-    <t>Intake of turkey meat [g/d]</t>
-  </si>
-  <si>
-    <t>DUCK_070203</t>
-  </si>
-  <si>
-    <t>Intake of duck meat [g/d]</t>
-  </si>
-  <si>
-    <t>GOOSE_070204</t>
-  </si>
-  <si>
-    <t>Intake of goose meat [g/d]</t>
-  </si>
-  <si>
-    <t>RABBIT_070205</t>
-  </si>
-  <si>
-    <t>Intake of rabbit meat [g/d]</t>
-  </si>
-  <si>
-    <t>GAME_0703</t>
-  </si>
-  <si>
-    <t>Intake of game [g/d]</t>
-  </si>
-  <si>
-    <t>PROCMEAT_0704</t>
-  </si>
-  <si>
-    <t>Intake of processed or preserved meat [g/d]</t>
-  </si>
-  <si>
-    <t>OFFALS_0705</t>
-  </si>
-  <si>
-    <t>Intake of animal offal and other slaughtering [g/d]</t>
-  </si>
-  <si>
-    <t>FISH_SHELLFISH_08</t>
-  </si>
-  <si>
-    <t>Intake of fish and seafood and products thereof [g/d]</t>
-  </si>
-  <si>
-    <t>FISH_0801</t>
-  </si>
-  <si>
-    <t>Intake of fish (meat) [g/d]</t>
-  </si>
-  <si>
-    <t>CRUSTACEANS_0802</t>
-  </si>
-  <si>
-    <t>Intake of seafood and products thereof [g/d]</t>
-  </si>
-  <si>
-    <t>FISH_PROD_0803</t>
-  </si>
-  <si>
-    <t>Intake of processed fish [g/d]</t>
-  </si>
-  <si>
-    <t>EGG_PROD_09</t>
-  </si>
-  <si>
-    <t>Intake of eggs and egg products [g/d]</t>
-  </si>
-  <si>
-    <t>EGGS_0901</t>
-  </si>
-  <si>
-    <t>Intake of eggs [g/d]</t>
-  </si>
-  <si>
-    <t>FAT_10</t>
-  </si>
-  <si>
-    <t>Intake of animal and vegetable fats and oils [g/d]</t>
-  </si>
-  <si>
-    <t>VEGOILS_1001</t>
-  </si>
-  <si>
-    <t>Intake of vegetable fats and oils [g/d]</t>
-  </si>
-  <si>
-    <t>BUTTER_1002</t>
-  </si>
-  <si>
-    <t>Intake of butter [g/d]</t>
-  </si>
-  <si>
-    <t>MARGARINE_1003</t>
-  </si>
-  <si>
-    <t>Intake of margarines and similar [g/d]</t>
-  </si>
-  <si>
-    <t>FRYFAT_1004</t>
-  </si>
-  <si>
-    <t>Intake of blended frying oil/fats [g/d]</t>
-  </si>
-  <si>
-    <t>MARINEOILS_1005</t>
-  </si>
-  <si>
-    <t>Intake of fats and oils from marine sources [g/d]</t>
-  </si>
-  <si>
-    <t>OTHER_ANIMALFAT_1006</t>
-  </si>
-  <si>
-    <t>Intake of animal fats (processed fat from animal tissue) [g/d]</t>
-  </si>
-  <si>
-    <t>SUGAR_CONFECT_11</t>
-  </si>
-  <si>
-    <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
-  </si>
-  <si>
-    <t>HONEY_JAM_1101</t>
-  </si>
-  <si>
-    <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
-  </si>
-  <si>
-    <t>CHOCOLATE_1102</t>
-  </si>
-  <si>
-    <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
-  </si>
-  <si>
-    <t>NONCHOC_SWEETS_1103</t>
-  </si>
-  <si>
-    <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
-  </si>
-  <si>
-    <t>SYRUP_1104</t>
-  </si>
-  <si>
-    <t>Intake of corn syrup and sugar beet syrup [g/d]</t>
-  </si>
-  <si>
-    <t>ICECREAM_1105</t>
-  </si>
-  <si>
-    <t>Intake of spoonable desserts and ice creams [g/d]</t>
-  </si>
-  <si>
-    <t>ICECREAM_MILK_110501</t>
-  </si>
-  <si>
-    <t>Intake of milk-based ice cream [g/d]</t>
-  </si>
-  <si>
-    <t>SORBET_110502</t>
-  </si>
-  <si>
-    <t>Sorbet intake [g/d]</t>
-  </si>
-  <si>
-    <t>WATER_ICE_110503</t>
-  </si>
-  <si>
-    <t>Intake of water-based ice creams [g/d]</t>
-  </si>
-  <si>
-    <t>CAKES_12</t>
-  </si>
-  <si>
-    <t>Intake of cakes and fine bakery products [g/d]</t>
-  </si>
-  <si>
-    <t>VARPASTRY_1201</t>
-  </si>
-  <si>
-    <t>Intake of various pastry [g/d]</t>
-  </si>
-  <si>
-    <t>DRYCAKE_1202</t>
-  </si>
-  <si>
-    <t>Intake of sponge biscuits and plain cakes [g/d]</t>
-  </si>
-  <si>
-    <t>NONALC_BEV_13</t>
-  </si>
-  <si>
-    <t>Intake of non-alcoholic beverages [g/d]</t>
-  </si>
-  <si>
-    <t>FRUITVEG_JUICE_1301</t>
-  </si>
-  <si>
-    <t>Intake of fruit and vegetable juices [g/d]</t>
-  </si>
-  <si>
-    <t>SOFTDRINKS_1302</t>
-  </si>
-  <si>
-    <t>Intake of soft drinks [g/d]</t>
-  </si>
-  <si>
-    <t>HOTDRINKS_1303</t>
-  </si>
-  <si>
-    <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
-  </si>
-  <si>
-    <t>COFFEE_130301</t>
-  </si>
-  <si>
-    <t>Coffee intake [g/d]</t>
-  </si>
-  <si>
-    <t>TEA_130302</t>
-  </si>
-  <si>
-    <t>Tea intake [g/d]</t>
-  </si>
-  <si>
-    <t>HERBALTEA_130303</t>
-  </si>
-  <si>
-    <t>Intake of herbal and other non-tea infusions [g/d]</t>
-  </si>
-  <si>
-    <t>COFFEE_IMITATE_130304</t>
-  </si>
-  <si>
-    <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
-  </si>
-  <si>
-    <t>WATER_1304</t>
-  </si>
-  <si>
-    <t>Intake of water and water-based beverages [g/d]</t>
-  </si>
-  <si>
-    <t>ALC_BEV_14</t>
-  </si>
-  <si>
-    <t>Alcoholic beverage intake [g/d]</t>
-  </si>
-  <si>
-    <t>WINE_1401</t>
-  </si>
-  <si>
-    <t>Intake of wine and wine-like drinks [g/d]</t>
-  </si>
-  <si>
-    <t>FORTWINE_1402</t>
-  </si>
-  <si>
-    <t>Intake of fortified/liqueur wine [g/d]</t>
-  </si>
-  <si>
-    <t>BEER_1403</t>
-  </si>
-  <si>
-    <t>Intake of beer and beer-like beverage [g/d]</t>
-  </si>
-  <si>
-    <t>SPIRITS_1404</t>
-  </si>
-  <si>
-    <t>Intake of unsweetened spirits [g/d]</t>
-  </si>
-  <si>
-    <t>HERBLIQUEUR_1405</t>
-  </si>
-  <si>
-    <t>Intake of herb liqueur [g/d]</t>
-  </si>
-  <si>
-    <t>LIQUEURS_1406</t>
-  </si>
-  <si>
-    <t>Intake of liqueurs [g/d]</t>
-  </si>
-  <si>
-    <t>COCKTAILS_1407</t>
-  </si>
-  <si>
-    <t>Intake of mixed alcoholic drinks [g/d]</t>
-  </si>
-  <si>
-    <t>CONDIMENT_SAUCES_15</t>
-  </si>
-  <si>
-    <t>Intake of seasoning, sauces and condiments [g/d]</t>
-  </si>
-  <si>
-    <t>SAUCES_1501</t>
-  </si>
-  <si>
-    <t>Intake of savoury sauces [g/d]</t>
-  </si>
-  <si>
-    <t>TOMATOSAUCE_150101</t>
-  </si>
-  <si>
-    <t>Intake of tomato-containing cooked sauces [g/d]</t>
-  </si>
-  <si>
-    <t>DRESSINGS_150102</t>
-  </si>
-  <si>
-    <t>Dressing intake [g/d]</t>
-  </si>
-  <si>
-    <t>MAYONNAISE_150103</t>
-  </si>
-  <si>
-    <t>Intake of mayonnaise [g/d]</t>
-  </si>
-  <si>
-    <t>DESSERTSAUCE_150104</t>
-  </si>
-  <si>
-    <t>Intakes of dessert sauces/toppings [g/d]</t>
-  </si>
-  <si>
-    <t>YEAST_1502</t>
-  </si>
-  <si>
-    <t>Intake of yeast cultures [g/d]</t>
-  </si>
-  <si>
-    <t>HERBS_SPICES_1503</t>
-  </si>
-  <si>
-    <t>Intakes of berbs, spices and similar [g/d]</t>
-  </si>
-  <si>
-    <t>CONDIMENTS_1504</t>
-  </si>
-  <si>
-    <t>Condiments intake [g/d]</t>
-  </si>
-  <si>
-    <t>SOUP_BOUILLON_16</t>
-  </si>
-  <si>
-    <t>Intake of soups and broths [g/d]</t>
-  </si>
-  <si>
-    <t>SOUP_1601</t>
-  </si>
-  <si>
-    <t>Intake of soups [g/d]</t>
-  </si>
-  <si>
-    <t>BOUILLON_1602</t>
-  </si>
-  <si>
-    <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
-  </si>
-  <si>
-    <t>MISCELLANEOUS_17</t>
-  </si>
-  <si>
-    <t>Intake of miscellaneous [g/d]</t>
-  </si>
-  <si>
-    <t>VEG_DISHES_1700</t>
-  </si>
-  <si>
-    <t>Intake of vegetarian products and dishes [g/d]</t>
-  </si>
-  <si>
-    <t>SOY_PROD_1701</t>
-  </si>
-  <si>
-    <t>Intake of soy products [g/d]</t>
-  </si>
-  <si>
-    <t>DIET_PROD_1702</t>
-  </si>
-  <si>
-    <t>Intake of food for weight reduction [g/d]</t>
-  </si>
-  <si>
-    <t>ART_SWEETENER_170201</t>
-  </si>
-  <si>
-    <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
-  </si>
-  <si>
-    <t>SNACKS_1703</t>
-  </si>
-  <si>
-    <t>Intake of snacks other than chips and similar [g/d]</t>
-  </si>
-  <si>
-    <t>AMPHIBIANS_1704</t>
-  </si>
-  <si>
-    <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
-  </si>
-  <si>
-    <t>DIETARY_ASSESS_INSTR</t>
-  </si>
-  <si>
-    <t>Dietary Assessment Instrument</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>FQgkart1;FQgkart2;FQbkart1;FQbkart2;FQpomm1;FQpomm2</t>
-  </si>
-  <si>
-    <t>complete</t>
-  </si>
-  <si>
-    <t>compatible</t>
-  </si>
-  <si>
-    <t>operation</t>
-  </si>
-  <si>
-    <t>(FQgkart1*FQgkart2) + (FQbkart1*FQbkart2) + (FQpomm1*FQpomm2)</t>
-  </si>
-  <si>
-    <t>partial</t>
-  </si>
-  <si>
-    <t>tentative</t>
-  </si>
-  <si>
-    <t>FQrgem1;FQrgem2;FQggem1;FQggem2</t>
-  </si>
-  <si>
-    <t>(FQrgem1*FQrgem2) + (FQggem1*FQggem2)</t>
-  </si>
-  <si>
-    <t>impossible</t>
-  </si>
-  <si>
-    <t>FQhuelse1;FQhuelse2</t>
-  </si>
-  <si>
-    <t>FQfobst1;FQfobst2;FQgobst1;FQgobst2</t>
-  </si>
-  <si>
-    <t>(FQfobst1*FQfobst2)+(FQgobst1*FQgobst2)</t>
-  </si>
-  <si>
-    <t>FQfobst1;FQfobst2</t>
-  </si>
-  <si>
-    <t>FQgobst1;FQgobst2</t>
-  </si>
-  <si>
-    <t>FQnuss1;FQnuss2</t>
-  </si>
-  <si>
-    <t>FQmilch1;FQmilch2</t>
-  </si>
-  <si>
-    <t>FQmilch1*FQmilch2</t>
-  </si>
-  <si>
-    <t>FQgobst1*FQgobst2</t>
-  </si>
-  <si>
-    <t>FQnuss1*FQnuss2</t>
-  </si>
-  <si>
-    <t>FQfobst1*FQfobst2</t>
-  </si>
-  <si>
-    <t>FQhuelse1*FQhuelse2</t>
-  </si>
-  <si>
-    <t>FQfkaes1;FQfkaes2</t>
-  </si>
-  <si>
-    <t>FQfkaes1*FQfkaes2</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Frischkäse</t>
-  </si>
-  <si>
-    <t>FQquark1;FQquark2</t>
-  </si>
-  <si>
-    <t>FQquark1*FQquark2</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Milch</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel gegartes Obst</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Nüsse</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel frisches Obst</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Hülsenfrüchte</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel rohes und gegartes Gemüse</t>
-  </si>
-  <si>
-    <t>FQkaes1;FQkaes2</t>
-  </si>
-  <si>
-    <t>FQkaes1*FQkaes2</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Käse (Weich-, Schnitt- oder Hartkäse)?</t>
-  </si>
-  <si>
-    <t>Wie oft und  wieviel Quark, Joghurt oder Dickmilch</t>
-  </si>
-  <si>
-    <t>FQnudel1;FQnudel2;FQreis1;FQreis2</t>
-  </si>
-  <si>
-    <t>(FQnudel1*FQnudel2) + (FQreis1*FQreis2)</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Nudeln und Reis</t>
-  </si>
-  <si>
-    <t>FQvbrot1;FQvbrot2;FQmbrot1;FQmbrot2;FQwbrot1;FQwbrot2</t>
-  </si>
-  <si>
-    <t>(FQvbrot1*FQvbrot2)+(FQmbrot1*FQmbrot2)+(FQwbrot1*FQwbrot2)</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Vollkornbrot oder -brötchen, Grau- oder Mischbrot, Weißbrot oder Brötchen</t>
-  </si>
-  <si>
-    <t>FQcorn1;FQcorn2;FQmuesli1;FQmuesli2</t>
-  </si>
-  <si>
-    <t>(FQcorn1*FQcorn2)+(FQmuesli1*FQmuesli2)</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Cornflakes und Müsli</t>
-  </si>
-  <si>
-    <t>FQcrack1;FQcrack2</t>
-  </si>
-  <si>
-    <t>FQcrack1*FQcrack2</t>
-  </si>
-  <si>
-    <t>Wie oft und wieviel Salzgebäck und Cracker</t>
-  </si>
-  <si>
-    <t>FQfleisch1*FQfleisch2</t>
-  </si>
-  <si>
     <t>FQfleisch1;FQfleisch2</t>
   </si>
   <si>
+    <t>(FQfleisch1*FQfleisch2)/28</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Wie oft und wieviel Fleisch (ohne Geflügel, ohne Wurst) 
 </t>
     </r>
@@ -943,21 +561,68 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Was machen wir mit FQfleisch3 (Wie oft paniertes Flesich)?</t>
+      <t>Was machen wir mit FQfleisch3 (Wie oft paniertes Fleisch)?</t>
     </r>
   </si>
   <si>
+    <t>BEEF_070101</t>
+  </si>
+  <si>
+    <t>Intake of cow, ox or bull fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>VEAL_070102</t>
+  </si>
+  <si>
+    <t>Intake of calf fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>PORK_070103</t>
+  </si>
+  <si>
+    <t>Intake of pig fresh meat [g/d]</t>
+  </si>
+  <si>
+    <t>MUTTON_LAMB_070104</t>
+  </si>
+  <si>
+    <t>Intake of lamb and sheep meat [g/d]</t>
+  </si>
+  <si>
+    <t>HORSE_070105</t>
+  </si>
+  <si>
+    <t>Intake of horse meat [g/d]</t>
+  </si>
+  <si>
+    <t>GOAT_070106</t>
+  </si>
+  <si>
+    <t>Intake of goat meat [g/d]</t>
+  </si>
+  <si>
+    <t>POULTRY_0702</t>
+  </si>
+  <si>
+    <t>Intake of poultry meat [g/d]</t>
+  </si>
+  <si>
     <t>FQhuhn1;FQhuhn2</t>
   </si>
   <si>
-    <t>FQhuhn1*FQhuhn2</t>
+    <t>(FQhuhn1*FQhuhn2)/28</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Wie oft und wieviel Geflügel
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wie oft und wieviel Geflügel?
 </t>
     </r>
     <r>
@@ -965,14 +630,64 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Was machen wir mit FGhuhn3 (Anteil paniertes o frittiertes Geflügel)?</t>
     </r>
   </si>
   <si>
-    <t>(FQburg1*FQburg2)+(FQcwurst1*FQcwurst2)+(FQwurst1*FQwurst2)+(FQschink1*FQschink2)</t>
+    <t>OTHERPOULTRY_070200</t>
+  </si>
+  <si>
+    <t>Intake of other poultry meat [g/d]</t>
+  </si>
+  <si>
+    <t>CHICKEN_070201</t>
+  </si>
+  <si>
+    <t>Intake of chicken meat [g/d]</t>
+  </si>
+  <si>
+    <t>TURKEY_070202</t>
+  </si>
+  <si>
+    <t>Intake of turkey meat [g/d]</t>
+  </si>
+  <si>
+    <t>DUCK_070203</t>
+  </si>
+  <si>
+    <t>Intake of duck meat [g/d]</t>
+  </si>
+  <si>
+    <t>GOOSE_070204</t>
+  </si>
+  <si>
+    <t>Intake of goose meat [g/d]</t>
+  </si>
+  <si>
+    <t>RABBIT_070205</t>
+  </si>
+  <si>
+    <t>Intake of rabbit meat [g/d]</t>
+  </si>
+  <si>
+    <t>GAME_0703</t>
+  </si>
+  <si>
+    <t>Intake of game [g/d]</t>
+  </si>
+  <si>
+    <t>PROCMEAT_0704</t>
+  </si>
+  <si>
+    <t>Intake of processed or preserved meat [g/d]</t>
+  </si>
+  <si>
+    <t>FQburg1;FQburg2;FQcwurst1;FQcwurst2;FQwurst1;FQwurst2;FQschink1;FQschink2</t>
+  </si>
+  <si>
+    <t>((FQburg1*FQburg2)+(FQcwurst1*FQcwurst2)+(FQwurst1*FQwurst2)+(FQschink1*FQschink2))/28</t>
   </si>
   <si>
     <r>
@@ -991,13 +706,28 @@
     </r>
   </si>
   <si>
-    <t>FQburg1;FQburg2;FQcwurst1;FQcwurst2;FQwurst1;FQwurst2;FQschink1;FQschink2</t>
+    <t>OFFALS_0705</t>
+  </si>
+  <si>
+    <t>Intake of animal offal and other slaughtering [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_SHELLFISH_08</t>
+  </si>
+  <si>
+    <t>Intake of fish and seafood and products thereof [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_0801</t>
+  </si>
+  <si>
+    <t>Intake of fish (meat) [g/d]</t>
   </si>
   <si>
     <t>FQkfisch1;FQkfisch2;FQwfisch1;FQwfisch2</t>
   </si>
   <si>
-    <t>(FQkfisch1*FQkfisch2)+(FQwfisch1*FQwfisch2)</t>
+    <t>((FQkfisch1*FQkfisch2)+(FQwfisch1*FQwfisch2))/28</t>
   </si>
   <si>
     <r>
@@ -1016,10 +746,28 @@
     </r>
   </si>
   <si>
+    <t>CRUSTACEANS_0802</t>
+  </si>
+  <si>
+    <t>Intake of seafood and products thereof [g/d]</t>
+  </si>
+  <si>
+    <t>FISH_PROD_0803</t>
+  </si>
+  <si>
+    <t>Intake of processed fish [g/d]</t>
+  </si>
+  <si>
+    <t>EGG_PROD_09</t>
+  </si>
+  <si>
+    <t>Intake of eggs and egg products [g/d]</t>
+  </si>
+  <si>
     <t>FQei1;FQei2</t>
   </si>
   <si>
-    <t>FQei1*FQei2</t>
+    <t>(FQei1*FQei2)/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Eier?</t>
@@ -1028,10 +776,22 @@
     <t xml:space="preserve">complete </t>
   </si>
   <si>
+    <t>EGGS_0901</t>
+  </si>
+  <si>
+    <t>Intake of eggs [g/d]</t>
+  </si>
+  <si>
+    <t>FAT_10</t>
+  </si>
+  <si>
+    <t>Intake of animal and vegetable fats and oils [g/d]</t>
+  </si>
+  <si>
     <t>FQsfett1;FQsfett2</t>
   </si>
   <si>
-    <t>FQsfett1*FQsfett2</t>
+    <t>(FQsfett1*FQsfett2)/28</t>
   </si>
   <si>
     <r>
@@ -1050,56 +810,176 @@
     </r>
   </si>
   <si>
+    <t>VEGOILS_1001</t>
+  </si>
+  <si>
+    <t>Intake of vegetable fats and oils [g/d]</t>
+  </si>
+  <si>
+    <t>BUTTER_1002</t>
+  </si>
+  <si>
+    <t>Intake of butter [g/d]</t>
+  </si>
+  <si>
+    <t>MARGARINE_1003</t>
+  </si>
+  <si>
+    <t>Intake of margarines and similar [g/d]</t>
+  </si>
+  <si>
+    <t>FRYFAT_1004</t>
+  </si>
+  <si>
+    <t>Intake of blended frying oil/fats [g/d]</t>
+  </si>
+  <si>
+    <t>MARINEOILS_1005</t>
+  </si>
+  <si>
+    <t>Intake of fats and oils from marine sources [g/d]</t>
+  </si>
+  <si>
+    <t>OTHER_ANIMALFAT_1006</t>
+  </si>
+  <si>
+    <t>Intake of animal fats (processed fat from animal tissue) [g/d]</t>
+  </si>
+  <si>
+    <t>SUGAR_CONFECT_11</t>
+  </si>
+  <si>
+    <t>Intake of sugar and similar, confectionery and water-based sweet desserts [g/d]</t>
+  </si>
+  <si>
+    <t>HONEY_JAM_1101</t>
+  </si>
+  <si>
+    <t>Intake of sugars, syrups, honey and table-top sweeteners [g/d]</t>
+  </si>
+  <si>
     <t>FQhonig1;FQhonig2;FQncreme1;FQncreme2</t>
   </si>
   <si>
+    <t>((FQhonig1*FQhonig2)+(FQncreme1*FQncreme2))/28</t>
+  </si>
+  <si>
     <t>Wie of und wieviel Honig oder Marmelade? Wie oft und wieviel Nuss-Nougatcreme?</t>
   </si>
   <si>
+    <t>CHOCOLATE_1102</t>
+  </si>
+  <si>
+    <t>Intake of chocolate, chocolate products and chocolate coated confectionary [g/d]</t>
+  </si>
+  <si>
     <t>FQschok1;FQschok2</t>
   </si>
   <si>
-    <t>Wie oft und wieviel Schokolade oder Schokeriegel?</t>
+    <t>(FQschok1*FQschok2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Schokolade oder Schokoriegel?</t>
+  </si>
+  <si>
+    <t>NONCHOC_SWEETS_1103</t>
+  </si>
+  <si>
+    <t>Intake of sweet bars and other formed sweet masses, candies (soft and hard) and other confectionery including breath refreshening microsweets [g/d]</t>
   </si>
   <si>
     <t>FQsuess1;FQsuess2</t>
   </si>
   <si>
-    <t>FQsuess1*FQsuess2</t>
-  </si>
-  <si>
-    <t>FQschok1*FQschok2</t>
-  </si>
-  <si>
-    <t>(FQhonig1*FQhonig2)+(FQncreme1*FQncreme2)</t>
+    <t>(FQsuess1*FQsuess2)/28</t>
+  </si>
+  <si>
+    <t>Wie oft und wieviel Süßigkeiten?</t>
+  </si>
+  <si>
+    <t>SYRUP_1104</t>
+  </si>
+  <si>
+    <t>Intake of corn syrup and sugar beet syrup [g/d]</t>
+  </si>
+  <si>
+    <t>ICECREAM_1105</t>
+  </si>
+  <si>
+    <t>Intake of spoonable desserts and ice creams [g/d]</t>
   </si>
   <si>
     <t>FQeis1;FQeis2</t>
   </si>
   <si>
-    <t>FQeis1*FQeis2</t>
+    <t>(FQeis1*FQeis2)/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Eis?</t>
   </si>
   <si>
-    <t>Wie oft und wieviel Süßigkeiten?</t>
+    <t>ICECREAM_MILK_110501</t>
+  </si>
+  <si>
+    <t>Intake of milk-based ice cream [g/d]</t>
+  </si>
+  <si>
+    <t>SORBET_110502</t>
+  </si>
+  <si>
+    <t>Sorbet intake [g/d]</t>
+  </si>
+  <si>
+    <t>WATER_ICE_110503</t>
+  </si>
+  <si>
+    <t>Intake of water-based ice creams [g/d]</t>
+  </si>
+  <si>
+    <t>CAKES_12</t>
+  </si>
+  <si>
+    <t>Intake of cakes and fine bakery products [g/d]</t>
   </si>
   <si>
     <t>FQkuch1;FQkuch2;FQkeks1;FQkeks2</t>
   </si>
   <si>
-    <t>(FQkuch1*FQkuch2)+(FQkeks1*FQkeks2)</t>
+    <t>((FQkuch1*FQkuch2)+(FQkeks1*FQkeks2))/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Kuchen, Torten oder süße Backwaren?
 Wie oft und wieviel Kekse?</t>
   </si>
   <si>
+    <t>VARPASTRY_1201</t>
+  </si>
+  <si>
+    <t>Intake of various pastry [g/d]</t>
+  </si>
+  <si>
+    <t>DRYCAKE_1202</t>
+  </si>
+  <si>
+    <t>Intake of sponge biscuits and plain cakes [g/d]</t>
+  </si>
+  <si>
+    <t>NONALC_BEV_13</t>
+  </si>
+  <si>
+    <t>Intake of non-alcoholic beverages [g/d]</t>
+  </si>
+  <si>
+    <t>FRUITVEG_JUICE_1301</t>
+  </si>
+  <si>
+    <t>Intake of fruit and vegetable juices [g/d]</t>
+  </si>
+  <si>
     <t>FQfsaft1;FQfsaft2;FQgsaft1;FQgsaft2</t>
   </si>
   <si>
-    <t>(FQfsaft1*FQfsaft2)+(FQgsaft1*FQgsaft2)</t>
+    <t>((FQfsaft1*FQfsaft2)+(FQgsaft1*FQgsaft2))/28</t>
   </si>
   <si>
     <r>
@@ -1120,20 +1000,38 @@
     </r>
   </si>
   <si>
+    <t>SOFTDRINKS_1302</t>
+  </si>
+  <si>
+    <t>Intake of soft drinks [g/d]</t>
+  </si>
+  <si>
     <t>FQcola1;FQcola2;FQlight1;FQlight2</t>
   </si>
   <si>
-    <t>(FQcola1*FQcola2)+(FQlight1*FQlight2)</t>
+    <t>((FQcola1*FQcola2)+(FQlight1*FQlight2))/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel zuckerh. Erfrischungsgetränke?
 Wie oft und wieviel kal.red. Erfrischungsgetränke?</t>
   </si>
   <si>
+    <t>HOTDRINKS_1303</t>
+  </si>
+  <si>
+    <t>Intake of hot drinks and similar (coffee, cocoa, tea and herbal infusions) [g/d]</t>
+  </si>
+  <si>
+    <t>COFFEE_130301</t>
+  </si>
+  <si>
+    <t>Coffee intake [g/d]</t>
+  </si>
+  <si>
     <t>FQkaff1;FQkaff2</t>
   </si>
   <si>
-    <t>FQkaff1*FQkaff2</t>
+    <t>(FQkaff1*FQkaff2)/28</t>
   </si>
   <si>
     <r>
@@ -1152,10 +1050,16 @@
     </r>
   </si>
   <si>
+    <t>TEA_130302</t>
+  </si>
+  <si>
+    <t>Tea intake [g/d]</t>
+  </si>
+  <si>
     <t>FQstee1;FQstee2</t>
   </si>
   <si>
-    <t>FQstee1*FQstee2</t>
+    <t>(FQstee1*FQstee2)/28</t>
   </si>
   <si>
     <r>
@@ -1174,10 +1078,16 @@
     </r>
   </si>
   <si>
+    <t>HERBALTEA_130303</t>
+  </si>
+  <si>
+    <t>Intake of herbal and other non-tea infusions [g/d]</t>
+  </si>
+  <si>
     <t>FQftee1;FQftee2</t>
   </si>
   <si>
-    <t>FQftee1*FQftee2</t>
+    <t>(FQftee1*FQftee2)/28</t>
   </si>
   <si>
     <r>
@@ -1196,83 +1106,272 @@
     </r>
   </si>
   <si>
+    <t>COFFEE_IMITATE_130304</t>
+  </si>
+  <si>
+    <t>Intake of chicory coffee infusion and coffee imitate beverages [g/d]</t>
+  </si>
+  <si>
+    <t>WATER_1304</t>
+  </si>
+  <si>
+    <t>Intake of water and water-based beverages [g/d]</t>
+  </si>
+  <si>
     <t>FQwass1;FQwass2</t>
   </si>
   <si>
-    <t>FQwass1*FQwass2</t>
+    <t>(FQwass1*FQwass2)/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Wasser?</t>
   </si>
   <si>
+    <t>ALC_BEV_14</t>
+  </si>
+  <si>
+    <t>Alcoholic beverage intake [g/d]</t>
+  </si>
+  <si>
+    <t>WINE_1401</t>
+  </si>
+  <si>
+    <t>Intake of wine and wine-like drinks [g/d]</t>
+  </si>
+  <si>
     <t>FQwein1;FQwein2</t>
   </si>
   <si>
-    <t>FQwein1*FQwein2</t>
+    <t>(FQwein1*FQwein2)/28</t>
   </si>
   <si>
     <t>Wie oft  und wieviel Wein, Sekt, Obstwein?</t>
   </si>
   <si>
+    <t>FORTWINE_1402</t>
+  </si>
+  <si>
+    <t>Intake of fortified/liqueur wine [g/d]</t>
+  </si>
+  <si>
+    <t>BEER_1403</t>
+  </si>
+  <si>
+    <t>Intake of beer and beer-like beverage [g/d]</t>
+  </si>
+  <si>
     <t>FQbier1;FQbier2</t>
   </si>
   <si>
-    <t>FQbier1*FQbier2</t>
+    <t>(FQbier1*FQbier2)/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Bier?</t>
   </si>
   <si>
+    <t>SPIRITS_1404</t>
+  </si>
+  <si>
+    <t>Intake of unsweetened spirits [g/d]</t>
+  </si>
+  <si>
     <t>FQschnaps1;FQschnaps2</t>
   </si>
   <si>
-    <t>FQschnaps1*FQschnaps2</t>
+    <t>(FQschnaps1*FQschnaps2)/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel hochprozentige alkoholische Getränke?</t>
   </si>
   <si>
+    <t>HERBLIQUEUR_1405</t>
+  </si>
+  <si>
+    <t>Intake of herb liqueur [g/d]</t>
+  </si>
+  <si>
+    <t>LIQUEURS_1406</t>
+  </si>
+  <si>
+    <t>Intake of liqueurs [g/d]</t>
+  </si>
+  <si>
+    <t>COCKTAILS_1407</t>
+  </si>
+  <si>
+    <t>Intake of mixed alcoholic drinks [g/d]</t>
+  </si>
+  <si>
     <t>FQcockt1;FQcockt2</t>
   </si>
   <si>
-    <t>FQcockt1*FQcockt2</t>
+    <t>(FQcockt1*FQcockt2)/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Cocktails?</t>
   </si>
   <si>
+    <t>CONDIMENT_SAUCES_15</t>
+  </si>
+  <si>
+    <t>Intake of seasoning, sauces and condiments [g/d]</t>
+  </si>
+  <si>
+    <t>SAUCES_1501</t>
+  </si>
+  <si>
+    <t>Intake of savoury sauces [g/d]</t>
+  </si>
+  <si>
+    <t>TOMATOSAUCE_150101</t>
+  </si>
+  <si>
+    <t>Intake of tomato-containing cooked sauces [g/d]</t>
+  </si>
+  <si>
+    <t>DRESSINGS_150102</t>
+  </si>
+  <si>
+    <t>Dressing intake [g/d]</t>
+  </si>
+  <si>
+    <t>MAYONNAISE_150103</t>
+  </si>
+  <si>
+    <t>Intake of mayonnaise [g/d]</t>
+  </si>
+  <si>
+    <t>DESSERTSAUCE_150104</t>
+  </si>
+  <si>
+    <t>Intakes of dessert sauces/toppings [g/d]</t>
+  </si>
+  <si>
+    <t>YEAST_1502</t>
+  </si>
+  <si>
+    <t>Intake of yeast cultures [g/d]</t>
+  </si>
+  <si>
+    <t>HERBS_SPICES_1503</t>
+  </si>
+  <si>
+    <t>Intakes of berbs, spices and similar [g/d]</t>
+  </si>
+  <si>
+    <t>CONDIMENTS_1504</t>
+  </si>
+  <si>
+    <t>Condiments intake [g/d]</t>
+  </si>
+  <si>
+    <t>SOUP_BOUILLON_16</t>
+  </si>
+  <si>
+    <t>Intake of soups and broths [g/d]</t>
+  </si>
+  <si>
+    <t>SOUP_1601</t>
+  </si>
+  <si>
+    <t>Intake of soups [g/d]</t>
+  </si>
+  <si>
+    <t>BOUILLON_1602</t>
+  </si>
+  <si>
+    <t>Intake of mixed vegetables soup, clear meat soup [g/d]</t>
+  </si>
+  <si>
+    <t>MISCELLANEOUS_17</t>
+  </si>
+  <si>
+    <t>Intake of miscellaneous [g/d]</t>
+  </si>
+  <si>
+    <t>VEG_DISHES_1700</t>
+  </si>
+  <si>
+    <t>Intake of vegetarian products and dishes [g/d]</t>
+  </si>
+  <si>
+    <t>SOY_PROD_1701</t>
+  </si>
+  <si>
+    <t>Intake of soy products [g/d]</t>
+  </si>
+  <si>
+    <t>DIET_PROD_1702</t>
+  </si>
+  <si>
+    <t>Intake of food for weight reduction [g/d]</t>
+  </si>
+  <si>
+    <t>ART_SWEETENER_170201</t>
+  </si>
+  <si>
+    <t>Intake of artificial sweeteners (e.g., aspartam, saccharine) [g/d]</t>
+  </si>
+  <si>
+    <t>SNACKS_1703</t>
+  </si>
+  <si>
+    <t>Intake of snacks other than chips and similar [g/d]</t>
+  </si>
+  <si>
     <t>FQpizza1;FQpizza2;FQchips1;FQchips2</t>
   </si>
   <si>
-    <t>(FQpizza1*FQpizza2)+(FQchips1*FQchips2)</t>
+    <t>((FQpizza1*FQpizza2)+(FQchips1*FQchips2))/28</t>
   </si>
   <si>
     <t>Wie oft und wieviel Pizza?
 Wie oft und wieviel Kartoffelchips?</t>
   </si>
   <si>
+    <t>AMPHIBIANS_1704</t>
+  </si>
+  <si>
+    <t>Intake of amphibians, reptiles, snails, insects [g/d]</t>
+  </si>
+  <si>
+    <t>DIETARY_ASSESS_INSTR</t>
+  </si>
+  <si>
+    <t>Dietary Assessment Instrument</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
     <t>__BLANK__</t>
   </si>
   <si>
     <t>paste</t>
   </si>
   <si>
+    <t>1 (FFQ)</t>
+  </si>
+  <si>
     <t>identical</t>
-  </si>
-  <si>
-    <t>1 (FFQ)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1310,6 +1409,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1343,12 +1460,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1358,18 +1475,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1708,10 +1826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C93" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H119" sqref="H119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1762,7 +1880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1772,3226 +1890,3904 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>253</v>
-      </c>
       <c r="G3" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" t="s">
-        <v>257</v>
+        <v>16</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G4" t="s">
-        <v>262</v>
-      </c>
-      <c r="H4" t="s">
-        <v>262</v>
-      </c>
-      <c r="J4" t="s">
-        <v>262</v>
-      </c>
-      <c r="K4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>260</v>
-      </c>
-      <c r="G5" t="s">
-        <v>256</v>
-      </c>
       <c r="H5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I5" t="s">
-        <v>285</v>
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
       </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
         <v>13</v>
       </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H12" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
         <v>13</v>
       </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H13" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J13" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K13" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
       </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="G15" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>274</v>
+        <v>54</v>
       </c>
       <c r="I15" t="s">
-        <v>284</v>
+        <v>55</v>
       </c>
       <c r="J15" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
       </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J16" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
       </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" t="s">
-        <v>264</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>265</v>
+        <v>61</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="J17" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
       </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" t="s">
-        <v>266</v>
+        <v>65</v>
       </c>
       <c r="G18" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>273</v>
-      </c>
-      <c r="I18" t="s">
-        <v>283</v>
+        <v>66</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
         <v>13</v>
       </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" t="s">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="G19" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H19" t="s">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="I19" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="J19" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
         <v>13</v>
       </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" t="s">
-        <v>267</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H20" t="s">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H21" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
         <v>13</v>
       </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
       <c r="F22" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K22" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>13</v>
       </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
       <c r="F23" t="s">
-        <v>269</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s">
-        <v>270</v>
+        <v>85</v>
       </c>
       <c r="I23" t="s">
-        <v>280</v>
+        <v>86</v>
       </c>
       <c r="J23" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H24" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J24" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" ht="105" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D25" t="s">
         <v>13</v>
       </c>
-      <c r="F25" t="s">
-        <v>278</v>
-      </c>
-      <c r="G25" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" t="s">
-        <v>279</v>
-      </c>
-      <c r="I25" t="s">
-        <v>289</v>
-      </c>
-      <c r="J25" t="s">
-        <v>254</v>
-      </c>
-      <c r="K25" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" ht="75" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
-      <c r="F26" t="s">
-        <v>275</v>
-      </c>
-      <c r="G26" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" t="s">
-        <v>276</v>
-      </c>
-      <c r="I26" t="s">
-        <v>277</v>
-      </c>
-      <c r="J26" t="s">
-        <v>254</v>
-      </c>
-      <c r="K26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" ht="90" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
         <v>13</v>
       </c>
-      <c r="F27" t="s">
-        <v>286</v>
-      </c>
-      <c r="G27" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" t="s">
-        <v>287</v>
-      </c>
-      <c r="I27" t="s">
-        <v>288</v>
-      </c>
-      <c r="J27" t="s">
-        <v>254</v>
-      </c>
-      <c r="K27" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="D28" t="s">
         <v>13</v>
       </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
       <c r="F28" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H28" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J28" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
       </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
       <c r="F29" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G29" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J29" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
         <v>13</v>
       </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
       <c r="F30" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G30" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J30" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
       </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H31" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H32" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J32" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K32" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
       <c r="F33" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H33" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J33" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K33" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>76</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D34" t="s">
         <v>13</v>
       </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J34" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
       </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s">
-        <v>291</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
-        <v>292</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
       </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
       <c r="F36" t="s">
-        <v>293</v>
+        <v>125</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s">
-        <v>294</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H37" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J37" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="D38" t="s">
         <v>13</v>
       </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H38" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J38" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="D39" t="s">
         <v>13</v>
       </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
       <c r="F39" t="s">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="G39" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
-        <v>297</v>
+        <v>135</v>
       </c>
       <c r="I39" t="s">
-        <v>298</v>
+        <v>136</v>
       </c>
       <c r="J39" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>88</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
         <v>13</v>
       </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
       <c r="F40" t="s">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="G40" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s">
-        <v>300</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="J40" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
       <c r="F41" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="D42" t="s">
         <v>13</v>
       </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
       <c r="F42" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G42" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K42" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="D43" t="s">
         <v>13</v>
       </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
       <c r="F43" s="3" t="s">
-        <v>303</v>
+        <v>148</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>304</v>
+        <v>149</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>150</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="D44" t="s">
         <v>13</v>
       </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H44" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K44" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
       <c r="F45" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G45" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H45" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K45" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>100</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
       </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
       <c r="F46" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H46" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K46" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>102</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="D47" t="s">
         <v>13</v>
       </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
       <c r="F47" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H47" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K47" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
         <v>13</v>
       </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K48" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
         <v>13</v>
       </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
       <c r="F49" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G49" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H49" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K49" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="C50" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="D50" t="s">
         <v>13</v>
       </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
       <c r="F50" s="3" t="s">
-        <v>305</v>
+        <v>165</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>307</v>
+        <v>166</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>167</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>110</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
         <v>13</v>
       </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
       <c r="F51" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H51" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K51" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>112</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
         <v>13</v>
       </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
       <c r="F52" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H52" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K52" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>114</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H53" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J53" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K53" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J54" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G55" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H55" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J55" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K55" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>120</v>
+        <v>178</v>
       </c>
       <c r="C56" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="D56" t="s">
         <v>13</v>
       </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G56" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H56" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J56" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>122</v>
+        <v>180</v>
       </c>
       <c r="C57" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
       </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
       <c r="F57" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H57" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J57" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K57" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="165" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>124</v>
+        <v>182</v>
       </c>
       <c r="C58" t="s">
-        <v>125</v>
+        <v>183</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
       </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="3" t="s">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>308</v>
+        <v>185</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>309</v>
+        <v>186</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="D59" t="s">
         <v>13</v>
       </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
       <c r="F59" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H59" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J59" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K59" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
       </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J60" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K60" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
       </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="3" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
       </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
       <c r="F62" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H62" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J62" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K62" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>134</v>
+        <v>198</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
       </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
       <c r="F63" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H63" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J63" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>136</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
       </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="G64" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H64" t="s">
-        <v>315</v>
+        <v>203</v>
       </c>
       <c r="I64" t="s">
-        <v>316</v>
+        <v>204</v>
       </c>
       <c r="J64" t="s">
-        <v>317</v>
+        <v>205</v>
       </c>
       <c r="K64" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
       </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
       <c r="F65" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H65" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J65" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
       <c r="C66" t="s">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
       </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
       <c r="F66" s="3" t="s">
-        <v>318</v>
+        <v>210</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>320</v>
+        <v>212</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>258</v>
+        <v>19</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>259</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
       </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
       <c r="F67" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H67" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J67" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K67" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
       </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
       <c r="F68" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G68" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H68" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J68" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K68" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
       </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G69" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H69" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J69" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K69" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
       </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
       <c r="F70" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G70" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H70" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J70" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K70" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
       <c r="F71" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G71" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H71" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J71" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K71" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
       <c r="F72" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H72" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J72" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K72" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="C73" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
       </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
       <c r="F73" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H73" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J73" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K73" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
       <c r="C74" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
       </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
       <c r="F74" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H74" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="I74" t="s">
-        <v>322</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>255</v>
+        <v>231</v>
+      </c>
+      <c r="J74" t="s">
+        <v>23</v>
+      </c>
+      <c r="K74" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="C75" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
       </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
       <c r="F75" t="s">
-        <v>323</v>
+        <v>234</v>
       </c>
       <c r="G75" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H75" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="I75" t="s">
-        <v>324</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>255</v>
+        <v>236</v>
+      </c>
+      <c r="J75" t="s">
+        <v>23</v>
+      </c>
+      <c r="K75" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>160</v>
+        <v>237</v>
       </c>
       <c r="C76" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
       </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" t="s">
-        <v>325</v>
+        <v>239</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>326</v>
+        <v>240</v>
       </c>
       <c r="I76" t="s">
-        <v>332</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>255</v>
+        <v>241</v>
+      </c>
+      <c r="J76" t="s">
+        <v>23</v>
+      </c>
+      <c r="K76" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
       </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
       <c r="F77" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G77" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H77" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J77" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K77" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>164</v>
+        <v>244</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
       </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
       <c r="F78" t="s">
-        <v>329</v>
+        <v>246</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H78" t="s">
-        <v>330</v>
+        <v>247</v>
       </c>
       <c r="I78" t="s">
-        <v>331</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>255</v>
+        <v>248</v>
+      </c>
+      <c r="J78" t="s">
+        <v>23</v>
+      </c>
+      <c r="K78" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>166</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
       </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
       <c r="F79" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G79" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H79" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J79" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K79" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>168</v>
+        <v>251</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
       </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
       <c r="F80" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H80" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J80" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K80" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>170</v>
+        <v>253</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
       </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
       <c r="F81" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H81" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J81" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K81" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>172</v>
+        <v>255</v>
       </c>
       <c r="C82" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
       </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
       <c r="F82" t="s">
-        <v>333</v>
+        <v>257</v>
       </c>
       <c r="G82" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="J82" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>255</v>
+        <v>259</v>
+      </c>
+      <c r="J82" t="s">
+        <v>23</v>
+      </c>
+      <c r="K82" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="C83" t="s">
-        <v>175</v>
+        <v>261</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
       </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
       <c r="F83" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G83" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H83" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J83" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K83" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
       </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G84" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H84" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K84" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="C85" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
       </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
       <c r="F85" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H85" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J85" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K85" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="86" spans="2:11" ht="180" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>180</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>181</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
       <c r="F86" s="3" t="s">
-        <v>336</v>
+        <v>268</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>337</v>
+        <v>269</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>338</v>
+        <v>270</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="2:11" ht="90" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>182</v>
+        <v>271</v>
       </c>
       <c r="C87" t="s">
-        <v>183</v>
+        <v>272</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
       </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" t="s">
-        <v>339</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H87" t="s">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="J87" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>255</v>
+        <v>275</v>
+      </c>
+      <c r="J87" t="s">
+        <v>23</v>
+      </c>
+      <c r="K87" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="C88" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
       <c r="F88" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G88" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H88" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J88" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K88" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="75" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="C89" t="s">
-        <v>187</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>342</v>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>280</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>343</v>
+        <v>281</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>344</v>
+        <v>282</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>188</v>
+        <v>283</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>284</v>
       </c>
       <c r="D90" t="s">
         <v>13</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>345</v>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>285</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>346</v>
+        <v>286</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="2:11" ht="105" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>190</v>
+        <v>288</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>289</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
       </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
       <c r="F91" s="3" t="s">
-        <v>348</v>
+        <v>290</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>349</v>
+        <v>291</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>350</v>
+        <v>292</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>192</v>
+        <v>293</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
       </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
       <c r="F92" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H92" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J92" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="2:11" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>194</v>
+        <v>295</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
       </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
       <c r="F93" t="s">
-        <v>351</v>
-      </c>
-      <c r="G93" s="6" t="s">
-        <v>256</v>
+        <v>297</v>
+      </c>
+      <c r="G93" t="s">
+        <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>352</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="J93" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>255</v>
+        <v>298</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="J93" t="s">
+        <v>23</v>
+      </c>
+      <c r="K93" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>196</v>
+        <v>300</v>
       </c>
       <c r="C94" t="s">
-        <v>197</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
       </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
       <c r="F94" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G94" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H94" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J94" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K94" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
       </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
       <c r="F95" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="G95" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H95" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="I95" t="s">
-        <v>356</v>
-      </c>
-      <c r="J95" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>255</v>
+        <v>306</v>
+      </c>
+      <c r="J95" t="s">
+        <v>23</v>
+      </c>
+      <c r="K95" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>200</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
       </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
       <c r="F96" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H96" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J96" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K96" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="C97" t="s">
-        <v>203</v>
+        <v>310</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
       <c r="F97" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="G97" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="I97" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="J97" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>204</v>
+        <v>314</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
       </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
       <c r="F98" t="s">
-        <v>360</v>
+        <v>316</v>
       </c>
       <c r="G98" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="I98" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="J98" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>206</v>
+        <v>319</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
       </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
       <c r="F99" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H99" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J99" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K99" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>208</v>
+        <v>321</v>
       </c>
       <c r="C100" t="s">
-        <v>209</v>
+        <v>322</v>
       </c>
       <c r="D100" t="s">
         <v>13</v>
       </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H100" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J100" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K100" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>210</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
-        <v>211</v>
+        <v>324</v>
       </c>
       <c r="D101" t="s">
         <v>13</v>
       </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
       <c r="F101" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="G101" t="s">
-        <v>256</v>
+        <v>16</v>
       </c>
       <c r="H101" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
       <c r="I101" t="s">
-        <v>365</v>
+        <v>327</v>
       </c>
       <c r="J101" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>212</v>
+        <v>328</v>
       </c>
       <c r="C102" t="s">
-        <v>213</v>
+        <v>329</v>
       </c>
       <c r="D102" t="s">
         <v>13</v>
       </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
       <c r="F102" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G102" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H102" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J102" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K102" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>214</v>
+        <v>330</v>
       </c>
       <c r="C103" t="s">
-        <v>215</v>
+        <v>331</v>
       </c>
       <c r="D103" t="s">
         <v>13</v>
       </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
       <c r="F103" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G103" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H103" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J103" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K103" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="C104" t="s">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
       </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
       <c r="F104" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H104" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J104" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K104" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="C105" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="D105" t="s">
         <v>13</v>
       </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
       <c r="F105" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G105" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H105" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J105" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K105" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>220</v>
+        <v>336</v>
       </c>
       <c r="C106" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="D106" t="s">
         <v>13</v>
       </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
       <c r="F106" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G106" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H106" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J106" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K106" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="C107" t="s">
-        <v>223</v>
+        <v>339</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
       </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
       <c r="F107" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G107" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H107" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J107" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K107" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>224</v>
+        <v>340</v>
       </c>
       <c r="C108" t="s">
-        <v>225</v>
+        <v>341</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
       </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
       <c r="F108" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H108" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J108" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K108" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>226</v>
+        <v>342</v>
       </c>
       <c r="C109" t="s">
-        <v>227</v>
+        <v>343</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
       </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
       <c r="F109" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H109" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J109" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K109" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>228</v>
+        <v>344</v>
       </c>
       <c r="C110" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
       </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
       <c r="F110" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H110" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J110" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K110" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>230</v>
+        <v>346</v>
       </c>
       <c r="C111" t="s">
-        <v>231</v>
+        <v>347</v>
       </c>
       <c r="D111" t="s">
         <v>13</v>
       </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
       <c r="F111" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G111" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H111" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J111" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K111" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="C112" t="s">
-        <v>233</v>
+        <v>349</v>
       </c>
       <c r="D112" t="s">
         <v>13</v>
       </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
       <c r="F112" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H112" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J112" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K112" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="C113" t="s">
-        <v>235</v>
+        <v>351</v>
       </c>
       <c r="D113" t="s">
         <v>13</v>
       </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
       <c r="F113" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G113" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H113" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J113" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K113" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>236</v>
+        <v>352</v>
       </c>
       <c r="C114" t="s">
-        <v>237</v>
+        <v>353</v>
       </c>
       <c r="D114" t="s">
         <v>13</v>
       </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
       <c r="F114" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G114" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H114" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J114" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K114" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>238</v>
+        <v>354</v>
       </c>
       <c r="C115" t="s">
-        <v>239</v>
+        <v>355</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
       </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
       <c r="F115" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G115" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H115" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J115" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K115" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>240</v>
+        <v>356</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
       </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
       <c r="F116" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H116" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J116" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K116" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>242</v>
+        <v>358</v>
       </c>
       <c r="C117" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
       </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
       <c r="F117" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G117" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H117" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J117" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K117" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="C118" t="s">
-        <v>245</v>
+        <v>361</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
       </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G118" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H118" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J118" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K118" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="119" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>246</v>
+        <v>362</v>
       </c>
       <c r="C119" t="s">
-        <v>247</v>
+        <v>363</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
       </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
       <c r="F119" t="s">
+        <v>364</v>
+      </c>
+      <c r="G119" t="s">
+        <v>16</v>
+      </c>
+      <c r="H119" t="s">
+        <v>365</v>
+      </c>
+      <c r="I119" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G119" t="s">
-        <v>256</v>
-      </c>
-      <c r="H119" t="s">
-        <v>367</v>
-      </c>
-      <c r="I119" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="J119" t="s">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="K119" t="s">
-        <v>255</v>
+        <v>24</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>248</v>
+        <v>367</v>
       </c>
       <c r="C120" t="s">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
       <c r="F120" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="G120" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="H120" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="J120" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
       <c r="K120" t="s">
-        <v>262</v>
+        <v>27</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="G121" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="H121" s="11">
+        <v>371</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H121" s="9">
         <v>1</v>
       </c>
-      <c r="I121" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="J121" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="K121" s="13" t="s">
-        <v>371</v>
+      <c r="I121" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K121" s="11" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100B1DC67C611DD5E4D81775F9F3E26A7B2" ma:contentTypeVersion="16" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="7f379a5812b480a74f9d031be5f88a83">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xmlns:ns3="12535b08-222e-45d2-b6db-15019f1afee6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="dbce1e37d7de67e1c835013ca0ee7a7c" ns2:_="" ns3:_="">
+    <xsd:import namespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <xsd:import namespace="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:Zeit" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="b63cdcf7-47fa-43f6-87e5-23b415b5c413" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="202992e8-d9f0-41e6-b50d-31ec800fc6f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="18" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Zeit" ma:index="23" nillable="true" ma:displayName="Zeit" ma:format="DateOnly" ma:internalName="Zeit">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:DateTime"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="12535b08-222e-45d2-b6db-15019f1afee6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{880f8e2b-93b9-4b9d-a61f-51b5e5109c54}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="12535b08-222e-45d2-b6db-15019f1afee6">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C1076D-2C61-4BAC-A503-5A4B20CD35B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A53FE4-D237-4764-9B07-7D2AFF4EC446}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EDAC40C-4E49-457D-B6B8-71BBCE94E8A2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/analyst/Franzi/rmonize/data_proc_elem/DPE_DEGS1_FRANZI.xlsx
+++ b/analyst/Franzi/rmonize/data_proc_elem/DPE_DEGS1_FRANZI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\NFDI4Health\TA5\Pilotprojekte\Harmonisierung\HarmonizR\use-cases-harmonisation\analyst\Franzi\rmonize\data_proc_elem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0B30EB3-09F9-439F-B114-5D0E84D35CF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8F179-B738-421D-8176-09178BFC4143}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -326,6 +315,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wie oft und  wieviel Quark, Joghurt oder Dickmilch?
@@ -336,6 +326,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Was machen wir mit FQquark3 (Anteil fettarmer Quark, Joghurt, Dickmilch)?</t>
@@ -359,6 +350,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wie oft und wieviel Frischkäse?
@@ -369,6 +361,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Was machen wir mit FQfkaes3 (Anteil fettarmer Frischkäse)?</t>
@@ -392,6 +385,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wie oft und wieviel Käse (Weich-, Schnitt- oder Hartkäse)?
@@ -402,6 +396,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Was machen wir mit FQkaes3 (Anteil fettarmer Käse)?</t>
@@ -551,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wie oft und wieviel Fleisch (ohne Geflügel, ohne Wurst) 
@@ -561,6 +557,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Was machen wir mit FQfleisch3 (Wie oft paniertes Fleisch)?</t>
@@ -620,6 +617,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Wie oft und wieviel Geflügel?
@@ -630,6 +628,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Was machen wir mit FGhuhn3 (Anteil paniertes o frittiertes Geflügel)?</t>
@@ -1350,17 +1349,17 @@
     <t>paste</t>
   </si>
   <si>
-    <t>1 (FFQ)</t>
-  </si>
-  <si>
     <t>identical</t>
+  </si>
+  <si>
+    <t>1 (FFQ), but asks only about the last 4 weeks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,6 +1371,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1413,19 +1413,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1828,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H119" sqref="H119"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="K135" sqref="K135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5471,13 +5459,13 @@
         <v>1</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J121" s="11" t="s">
         <v>23</v>
       </c>
       <c r="K121" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5487,6 +5475,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Zeit xmlns="b63cdcf7-47fa-43f6-87e5-23b415b5c413" xsi:nil="true"/>
@@ -5496,15 +5493,6 @@
     <TaxCatchAll xmlns="12535b08-222e-45d2-b6db-15019f1afee6" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5749,26 +5737,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C1076D-2C61-4BAC-A503-5A4B20CD35B7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A53FE4-D237-4764-9B07-7D2AFF4EC446}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
-    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70A53FE4-D237-4764-9B07-7D2AFF4EC446}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C1076D-2C61-4BAC-A503-5A4B20CD35B7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="b63cdcf7-47fa-43f6-87e5-23b415b5c413"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="12535b08-222e-45d2-b6db-15019f1afee6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
